--- a/ISRaD_data_files/Chiti_2010.xlsx
+++ b/ISRaD_data_files/Chiti_2010.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -161,9 +161,6 @@
     <t>Chiti_2010</t>
   </si>
   <si>
-    <t xml:space="preserve"> 10.1007/s11104-009-0265-x</t>
-  </si>
-  <si>
     <t>10.1126/science.aad4273</t>
   </si>
   <si>
@@ -2749,6 +2746,9 @@
   </si>
   <si>
     <t>frc_fraction_modern_sd</t>
+  </si>
+  <si>
+    <t>10.1007/s11104-009-0265-x</t>
   </si>
 </sst>
 </file>
@@ -2878,21 +2878,26 @@
     </xf>
   </cellXfs>
   <cellStyles count="12">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_layer" xfId="3"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3177,13 +3182,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3233,7 +3238,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3280,7 +3285,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -3318,45 +3323,45 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>43</v>
       </c>
       <c r="B4" t="s">
+        <v>906</v>
+      </c>
+      <c r="C4" t="s">
         <v>44</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>45</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>46</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>49</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>50</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" t="s">
         <v>51</v>
       </c>
-      <c r="J4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
+        <v>902</v>
+      </c>
+      <c r="P4" t="s">
         <v>52</v>
-      </c>
-      <c r="M4" t="s">
-        <v>903</v>
-      </c>
-      <c r="P4" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -3378,89 +3383,89 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="41.83203125" customWidth="1"/>
+    <col min="2" max="2" width="41.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>56</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>57</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>58</v>
       </c>
-      <c r="G1" t="s">
-        <v>59</v>
-      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
       <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
         <v>60</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>61</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>62</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>63</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>64</v>
       </c>
-      <c r="G2" t="s">
-        <v>65</v>
-      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
       <c r="C3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" t="s">
         <v>66</v>
       </c>
-      <c r="D3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>67</v>
       </c>
-      <c r="F3" t="s">
-        <v>68</v>
-      </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s">
         <v>69</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>70</v>
-      </c>
-      <c r="F4" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -3482,411 +3487,411 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" t="s">
         <v>72</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>73</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>74</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>75</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>76</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>77</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>78</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>79</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>80</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>81</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>82</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>83</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>84</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>85</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>86</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>87</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>88</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>89</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>90</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>91</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>92</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>93</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>94</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>95</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>96</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>97</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>98</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>99</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>100</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>101</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>102</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>103</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>104</v>
       </c>
-      <c r="AJ1" t="s">
-        <v>105</v>
-      </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
       <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" t="s">
         <v>60</v>
       </c>
-      <c r="C2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" t="s">
         <v>108</v>
       </c>
-      <c r="F2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>109</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>110</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>111</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>112</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>113</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>114</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>115</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>116</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>117</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>118</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>119</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>120</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>121</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>122</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>123</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>124</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>125</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>126</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>127</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>128</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>129</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>130</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>131</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>132</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>133</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>134</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>135</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>136</v>
       </c>
-      <c r="AJ2" t="s">
-        <v>137</v>
-      </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
       <c r="E3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" t="s">
         <v>138</v>
       </c>
-      <c r="F3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>139</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>140</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>141</v>
-      </c>
-      <c r="L3" t="s">
-        <v>142</v>
       </c>
       <c r="M3" t="s">
         <v>36</v>
       </c>
       <c r="N3" t="s">
+        <v>142</v>
+      </c>
+      <c r="P3" t="s">
         <v>143</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>144</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
+        <v>141</v>
+      </c>
+      <c r="S3" t="s">
         <v>145</v>
       </c>
-      <c r="R3" t="s">
-        <v>142</v>
-      </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>146</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>147</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>148</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
+        <v>148</v>
+      </c>
+      <c r="X3" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y3" t="s">
         <v>149</v>
       </c>
-      <c r="W3" t="s">
-        <v>149</v>
-      </c>
-      <c r="X3" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>150</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>151</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>152</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>153</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>154</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF3" t="s">
         <v>155</v>
       </c>
-      <c r="AE3" t="s">
-        <v>146</v>
-      </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>156</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AH3" t="s">
         <v>157</v>
       </c>
-      <c r="AH3" t="s">
-        <v>158</v>
-      </c>
       <c r="AI3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AJ3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D4" t="s">
+        <v>900</v>
+      </c>
+      <c r="E4" t="s">
         <v>901</v>
       </c>
-      <c r="E4" t="s">
-        <v>902</v>
-      </c>
       <c r="H4" t="s">
+        <v>158</v>
+      </c>
+      <c r="N4" t="s">
         <v>159</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>160</v>
       </c>
-      <c r="P4" t="s">
+      <c r="T4" t="s">
         <v>161</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>162</v>
       </c>
-      <c r="U4" t="s">
-        <v>163</v>
-      </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E5" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H5" t="s">
+        <v>158</v>
+      </c>
+      <c r="N5" t="s">
         <v>159</v>
       </c>
-      <c r="N5" t="s">
+      <c r="P5" t="s">
         <v>160</v>
       </c>
-      <c r="P5" t="s">
+      <c r="T5" t="s">
         <v>161</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>162</v>
       </c>
-      <c r="U5" t="s">
-        <v>163</v>
-      </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>43</v>
       </c>
       <c r="B6" t="s">
+        <v>898</v>
+      </c>
+      <c r="D6" t="s">
         <v>899</v>
       </c>
-      <c r="D6" t="s">
-        <v>900</v>
-      </c>
       <c r="E6" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H6" t="s">
+        <v>158</v>
+      </c>
+      <c r="N6" t="s">
         <v>159</v>
       </c>
-      <c r="N6" t="s">
+      <c r="P6" t="s">
         <v>160</v>
       </c>
-      <c r="P6" t="s">
+      <c r="T6" t="s">
         <v>161</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>162</v>
-      </c>
-      <c r="U6" t="s">
-        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -3906,240 +3911,240 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" t="s">
         <v>72</v>
       </c>
-      <c r="D1" t="s">
-        <v>73</v>
-      </c>
       <c r="E1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1" t="s">
         <v>165</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>166</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>167</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>168</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>169</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>170</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>171</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>172</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>173</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>174</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>175</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>176</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>177</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>178</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>179</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>180</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>181</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>182</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>183</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>184</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>185</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>186</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>187</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>188</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>189</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>190</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>191</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>192</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>193</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>194</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>195</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>196</v>
       </c>
-      <c r="AK1" t="s">
-        <v>197</v>
-      </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E2" t="s">
         <v>198</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>199</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>200</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>201</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>202</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>203</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>204</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>205</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>206</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>207</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>208</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>209</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>210</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>211</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>212</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>213</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>214</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>215</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>216</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>217</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>218</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>219</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>220</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>221</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>222</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>223</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>224</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>225</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>226</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>227</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>228</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>229</v>
       </c>
-      <c r="AK2" t="s">
-        <v>230</v>
-      </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G3" t="s">
         <v>35</v>
@@ -4151,64 +4156,64 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
+        <v>230</v>
+      </c>
+      <c r="L3" t="s">
         <v>231</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>232</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>233</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>234</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>235</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>236</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
+        <v>139</v>
+      </c>
+      <c r="T3" t="s">
+        <v>139</v>
+      </c>
+      <c r="U3" t="s">
         <v>237</v>
       </c>
-      <c r="S3" t="s">
-        <v>140</v>
-      </c>
-      <c r="T3" t="s">
-        <v>140</v>
-      </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
+        <v>145</v>
+      </c>
+      <c r="W3" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z3" t="s">
         <v>238</v>
       </c>
-      <c r="V3" t="s">
-        <v>146</v>
-      </c>
-      <c r="W3" t="s">
-        <v>146</v>
-      </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>239</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
+        <v>239</v>
+      </c>
+      <c r="AC3" t="s">
         <v>240</v>
       </c>
-      <c r="AB3" t="s">
-        <v>240</v>
-      </c>
-      <c r="AC3" t="s">
+      <c r="AE3" t="s">
         <v>241</v>
       </c>
-      <c r="AE3" t="s">
-        <v>242</v>
-      </c>
       <c r="AF3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AG3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AH3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -4230,605 +4235,605 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:98">
+    <row r="1" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E1" t="s">
         <v>243</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>244</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>245</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>246</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>247</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>248</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>249</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>250</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>251</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>252</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>253</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>254</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>255</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>256</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>257</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>258</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>259</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>260</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>261</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>262</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>263</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>264</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>265</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>266</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>267</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>268</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>269</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>270</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>271</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>272</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>273</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>274</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>275</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>276</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>277</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>278</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>279</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>280</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>281</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>282</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>283</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>284</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>285</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>286</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>287</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>288</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>289</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>290</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>291</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>292</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>293</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>294</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>295</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>296</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>297</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>298</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>299</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>300</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>301</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>302</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>303</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>304</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>305</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>306</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>307</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>308</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>309</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>310</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>311</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>312</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>313</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BX1" t="s">
         <v>314</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BY1" t="s">
         <v>315</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BZ1" t="s">
         <v>316</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CA1" t="s">
         <v>317</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CB1" t="s">
         <v>318</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CC1" t="s">
         <v>319</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CD1" t="s">
         <v>320</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CE1" t="s">
         <v>321</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CF1" t="s">
         <v>322</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CG1" t="s">
         <v>323</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CH1" t="s">
         <v>324</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CI1" t="s">
         <v>325</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CJ1" t="s">
         <v>326</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CK1" t="s">
         <v>327</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CL1" t="s">
         <v>328</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CM1" t="s">
         <v>329</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CN1" t="s">
         <v>330</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CO1" t="s">
         <v>331</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CP1" t="s">
         <v>332</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CQ1" t="s">
         <v>333</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CR1" t="s">
         <v>334</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CS1" t="s">
         <v>335</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CT1" t="s">
         <v>336</v>
       </c>
-      <c r="CT1" t="s">
-        <v>337</v>
-      </c>
     </row>
-    <row r="2" spans="1:98">
+    <row r="2" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H2" t="s">
         <v>338</v>
       </c>
-      <c r="E2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F2" t="s">
-        <v>202</v>
-      </c>
-      <c r="G2" t="s">
-        <v>203</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>339</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>340</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>341</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>342</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>343</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>344</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>345</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>346</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>347</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>348</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>349</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>350</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>351</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>352</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>353</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>354</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>355</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>356</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>357</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>358</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>359</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>360</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>361</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>362</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>363</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>364</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>365</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>366</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>367</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2" t="s">
         <v>368</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AM2" t="s">
         <v>369</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
         <v>370</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>371</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>372</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
         <v>373</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AR2" t="s">
         <v>374</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
         <v>375</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AT2" t="s">
         <v>376</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AU2" t="s">
         <v>377</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AV2" t="s">
         <v>378</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AW2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AZ2" t="s">
         <v>379</v>
       </c>
-      <c r="AW2" t="s">
-        <v>222</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>223</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>224</v>
-      </c>
-      <c r="AZ2" t="s">
+      <c r="BA2" t="s">
         <v>380</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BB2" t="s">
         <v>381</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BC2" t="s">
         <v>382</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BD2" t="s">
         <v>383</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BE2" t="s">
         <v>384</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BF2" t="s">
         <v>385</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BG2" t="s">
         <v>386</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BH2" t="s">
         <v>387</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BI2" t="s">
         <v>388</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BJ2" t="s">
         <v>389</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BK2" t="s">
         <v>390</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BL2" t="s">
         <v>391</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BM2" t="s">
         <v>392</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BN2" t="s">
         <v>393</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BO2" t="s">
         <v>394</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BP2" t="s">
         <v>395</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BQ2" t="s">
         <v>396</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="BR2" t="s">
         <v>397</v>
       </c>
-      <c r="BR2" t="s">
+      <c r="BS2" t="s">
         <v>398</v>
       </c>
-      <c r="BS2" t="s">
+      <c r="BT2" t="s">
         <v>399</v>
       </c>
-      <c r="BT2" t="s">
+      <c r="BU2" t="s">
         <v>400</v>
       </c>
-      <c r="BU2" t="s">
+      <c r="BV2" t="s">
         <v>401</v>
       </c>
-      <c r="BV2" t="s">
+      <c r="BW2" t="s">
         <v>402</v>
       </c>
-      <c r="BW2" t="s">
+      <c r="BX2" t="s">
         <v>403</v>
       </c>
-      <c r="BX2" t="s">
+      <c r="BY2" t="s">
         <v>404</v>
       </c>
-      <c r="BY2" t="s">
+      <c r="BZ2" t="s">
         <v>405</v>
       </c>
-      <c r="BZ2" t="s">
+      <c r="CA2" t="s">
         <v>406</v>
       </c>
-      <c r="CA2" t="s">
+      <c r="CB2" t="s">
         <v>407</v>
       </c>
-      <c r="CB2" t="s">
+      <c r="CC2" t="s">
         <v>408</v>
       </c>
-      <c r="CC2" t="s">
+      <c r="CD2" t="s">
         <v>409</v>
       </c>
-      <c r="CD2" t="s">
+      <c r="CE2" t="s">
         <v>410</v>
       </c>
-      <c r="CE2" t="s">
+      <c r="CF2" t="s">
         <v>411</v>
       </c>
-      <c r="CF2" t="s">
+      <c r="CG2" t="s">
         <v>412</v>
       </c>
-      <c r="CG2" t="s">
+      <c r="CH2" t="s">
         <v>413</v>
       </c>
-      <c r="CH2" t="s">
+      <c r="CI2" t="s">
         <v>414</v>
       </c>
-      <c r="CI2" t="s">
+      <c r="CJ2" t="s">
         <v>415</v>
       </c>
-      <c r="CJ2" t="s">
+      <c r="CK2" t="s">
         <v>416</v>
       </c>
-      <c r="CK2" t="s">
+      <c r="CL2" t="s">
         <v>417</v>
       </c>
-      <c r="CL2" t="s">
+      <c r="CM2" t="s">
         <v>418</v>
       </c>
-      <c r="CM2" t="s">
+      <c r="CN2" t="s">
         <v>419</v>
       </c>
-      <c r="CN2" t="s">
+      <c r="CO2" t="s">
         <v>420</v>
       </c>
-      <c r="CO2" t="s">
+      <c r="CP2" t="s">
         <v>421</v>
       </c>
-      <c r="CP2" t="s">
+      <c r="CQ2" t="s">
         <v>422</v>
       </c>
-      <c r="CQ2" t="s">
+      <c r="CR2" t="s">
         <v>423</v>
       </c>
-      <c r="CR2" t="s">
+      <c r="CS2" t="s">
         <v>424</v>
       </c>
-      <c r="CS2" t="s">
+      <c r="CT2" t="s">
         <v>425</v>
       </c>
-      <c r="CT2" t="s">
-        <v>426</v>
-      </c>
     </row>
-    <row r="3" spans="1:98">
+    <row r="3" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -4842,255 +4847,255 @@
         <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O3" t="s">
+        <v>426</v>
+      </c>
+      <c r="P3" t="s">
         <v>427</v>
       </c>
-      <c r="P3" t="s">
-        <v>428</v>
-      </c>
       <c r="Q3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="S3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="U3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="V3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="W3" t="s">
         <v>36</v>
       </c>
       <c r="X3" t="s">
+        <v>428</v>
+      </c>
+      <c r="AC3" t="s">
         <v>429</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>430</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>431</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
+        <v>431</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>431</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>431</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>431</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>431</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>431</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AS3" t="s">
         <v>432</v>
       </c>
-      <c r="AF3" t="s">
-        <v>432</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>432</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>432</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>432</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>432</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>432</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>146</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>146</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>146</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>146</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>158</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>158</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>146</v>
-      </c>
-      <c r="AS3" t="s">
+      <c r="AT3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>239</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>239</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>240</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>241</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>239</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>239</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>239</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>239</v>
+      </c>
+      <c r="BF3" t="s">
         <v>433</v>
       </c>
-      <c r="AT3" t="s">
-        <v>146</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>240</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>240</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>241</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>242</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>240</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>240</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>240</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>240</v>
-      </c>
-      <c r="BF3" t="s">
+      <c r="BG3" t="s">
         <v>434</v>
       </c>
-      <c r="BG3" t="s">
+      <c r="BH3" t="s">
+        <v>434</v>
+      </c>
+      <c r="BL3" t="s">
         <v>435</v>
       </c>
-      <c r="BH3" t="s">
+      <c r="BM3" t="s">
         <v>435</v>
       </c>
-      <c r="BL3" t="s">
+      <c r="BN3" t="s">
+        <v>435</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>435</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>435</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>435</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>435</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>435</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>435</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>435</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>435</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>435</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>435</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>435</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>435</v>
+      </c>
+      <c r="CC3" t="s">
+        <v>435</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>435</v>
+      </c>
+      <c r="CE3" t="s">
         <v>436</v>
       </c>
-      <c r="BM3" t="s">
+      <c r="CF3" t="s">
         <v>436</v>
       </c>
-      <c r="BN3" t="s">
+      <c r="CG3" t="s">
         <v>436</v>
       </c>
-      <c r="BO3" t="s">
+      <c r="CH3" t="s">
         <v>436</v>
       </c>
-      <c r="BQ3" t="s">
+      <c r="CI3" t="s">
         <v>436</v>
       </c>
-      <c r="BR3" t="s">
+      <c r="CJ3" t="s">
         <v>436</v>
       </c>
-      <c r="BS3" t="s">
+      <c r="CK3" t="s">
         <v>436</v>
       </c>
-      <c r="BT3" t="s">
+      <c r="CL3" t="s">
         <v>436</v>
       </c>
-      <c r="BV3" t="s">
+      <c r="CM3" t="s">
         <v>436</v>
       </c>
-      <c r="BW3" t="s">
+      <c r="CN3" t="s">
         <v>436</v>
       </c>
-      <c r="BX3" t="s">
+      <c r="CO3" t="s">
         <v>436</v>
       </c>
-      <c r="BY3" t="s">
+      <c r="CP3" t="s">
         <v>436</v>
       </c>
-      <c r="BZ3" t="s">
+      <c r="CQ3" t="s">
         <v>436</v>
       </c>
-      <c r="CA3" t="s">
+      <c r="CR3" t="s">
         <v>436</v>
       </c>
-      <c r="CB3" t="s">
+      <c r="CS3" t="s">
         <v>436</v>
       </c>
-      <c r="CC3" t="s">
+      <c r="CT3" t="s">
         <v>436</v>
       </c>
-      <c r="CD3" t="s">
-        <v>436</v>
-      </c>
-      <c r="CE3" t="s">
-        <v>437</v>
-      </c>
-      <c r="CF3" t="s">
-        <v>437</v>
-      </c>
-      <c r="CG3" t="s">
-        <v>437</v>
-      </c>
-      <c r="CH3" t="s">
-        <v>437</v>
-      </c>
-      <c r="CI3" t="s">
-        <v>437</v>
-      </c>
-      <c r="CJ3" t="s">
-        <v>437</v>
-      </c>
-      <c r="CK3" t="s">
-        <v>437</v>
-      </c>
-      <c r="CL3" t="s">
-        <v>437</v>
-      </c>
-      <c r="CM3" t="s">
-        <v>437</v>
-      </c>
-      <c r="CN3" t="s">
-        <v>437</v>
-      </c>
-      <c r="CO3" t="s">
-        <v>437</v>
-      </c>
-      <c r="CP3" t="s">
-        <v>437</v>
-      </c>
-      <c r="CQ3" t="s">
-        <v>437</v>
-      </c>
-      <c r="CR3" t="s">
-        <v>437</v>
-      </c>
-      <c r="CS3" t="s">
-        <v>437</v>
-      </c>
-      <c r="CT3" t="s">
-        <v>437</v>
-      </c>
     </row>
-    <row r="4" spans="1:98">
+    <row r="4" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C4" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D4" t="s">
+        <v>437</v>
+      </c>
+      <c r="E4" t="s">
         <v>438</v>
       </c>
-      <c r="E4" t="s">
+      <c r="I4" t="s">
         <v>439</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>440</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>441</v>
-      </c>
-      <c r="K4" t="s">
-        <v>442</v>
       </c>
       <c r="P4">
         <v>0.90200000000000002</v>
@@ -5099,10 +5104,10 @@
         <v>6.0600000000000005</v>
       </c>
       <c r="AZ4" t="s">
+        <v>442</v>
+      </c>
+      <c r="BA4" t="s">
         <v>443</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>444</v>
       </c>
       <c r="BC4" s="1">
         <v>1.099</v>
@@ -5111,30 +5116,30 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:98">
+    <row r="5" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E5" t="s">
+        <v>438</v>
+      </c>
+      <c r="I5" t="s">
         <v>439</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>440</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>441</v>
-      </c>
-      <c r="K5" t="s">
-        <v>442</v>
       </c>
       <c r="P5">
         <v>0.90200000000000002</v>
@@ -5143,10 +5148,10 @@
         <v>6.0600000000000005</v>
       </c>
       <c r="AZ5" t="s">
+        <v>445</v>
+      </c>
+      <c r="BA5" t="s">
         <v>446</v>
-      </c>
-      <c r="BA5" t="s">
-        <v>447</v>
       </c>
       <c r="BC5" s="1">
         <v>1.0920000000000001</v>
@@ -5155,30 +5160,30 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:98">
+    <row r="6" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>43</v>
       </c>
       <c r="B6" t="s">
+        <v>898</v>
+      </c>
+      <c r="C6" t="s">
         <v>899</v>
       </c>
-      <c r="C6" t="s">
-        <v>900</v>
-      </c>
       <c r="D6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E6" t="s">
+        <v>438</v>
+      </c>
+      <c r="I6" t="s">
         <v>439</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>440</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>441</v>
-      </c>
-      <c r="K6" t="s">
-        <v>442</v>
       </c>
       <c r="P6">
         <v>0.90200000000000002</v>
@@ -5187,10 +5192,10 @@
         <v>6.0600000000000005</v>
       </c>
       <c r="AZ6" t="s">
+        <v>448</v>
+      </c>
+      <c r="BA6" t="s">
         <v>449</v>
-      </c>
-      <c r="BA6" t="s">
-        <v>450</v>
       </c>
       <c r="BC6" s="1">
         <v>1.091</v>
@@ -5199,30 +5204,30 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:98">
+    <row r="7" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C7" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D7" t="s">
+        <v>450</v>
+      </c>
+      <c r="E7" t="s">
+        <v>438</v>
+      </c>
+      <c r="I7" t="s">
+        <v>440</v>
+      </c>
+      <c r="J7" t="s">
         <v>451</v>
       </c>
-      <c r="E7" t="s">
-        <v>439</v>
-      </c>
-      <c r="I7" t="s">
-        <v>441</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>452</v>
-      </c>
-      <c r="K7" t="s">
-        <v>453</v>
       </c>
       <c r="P7">
         <v>1.2729999999999999</v>
@@ -5231,10 +5236,10 @@
         <v>1.58</v>
       </c>
       <c r="AZ7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="BA7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="BC7" s="1">
         <v>1.069</v>
@@ -5243,30 +5248,30 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:98">
+    <row r="8" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>43</v>
       </c>
       <c r="B8" t="s">
+        <v>898</v>
+      </c>
+      <c r="C8" t="s">
         <v>899</v>
       </c>
-      <c r="C8" t="s">
-        <v>900</v>
-      </c>
       <c r="D8" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E8" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I8" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J8" t="s">
+        <v>451</v>
+      </c>
+      <c r="K8" t="s">
         <v>452</v>
-      </c>
-      <c r="K8" t="s">
-        <v>453</v>
       </c>
       <c r="P8">
         <v>1.2729999999999999</v>
@@ -5275,10 +5280,10 @@
         <v>1.58</v>
       </c>
       <c r="AZ8" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="BA8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="BC8" s="1">
         <v>1.0669999999999999</v>
@@ -5287,30 +5292,30 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:98">
+    <row r="9" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J9" t="s">
+        <v>451</v>
+      </c>
+      <c r="K9" t="s">
         <v>452</v>
-      </c>
-      <c r="K9" t="s">
-        <v>453</v>
       </c>
       <c r="P9">
         <v>1.2729999999999999</v>
@@ -5319,10 +5324,10 @@
         <v>1.58</v>
       </c>
       <c r="AZ9" t="s">
+        <v>457</v>
+      </c>
+      <c r="BA9" t="s">
         <v>458</v>
-      </c>
-      <c r="BA9" t="s">
-        <v>459</v>
       </c>
       <c r="BC9" s="1">
         <v>1.06</v>
@@ -5331,30 +5336,30 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:98">
+    <row r="10" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>43</v>
       </c>
       <c r="B10" t="s">
+        <v>898</v>
+      </c>
+      <c r="C10" t="s">
         <v>899</v>
       </c>
-      <c r="C10" t="s">
-        <v>900</v>
-      </c>
       <c r="D10" t="s">
+        <v>459</v>
+      </c>
+      <c r="E10" t="s">
+        <v>438</v>
+      </c>
+      <c r="I10" t="s">
+        <v>451</v>
+      </c>
+      <c r="J10" t="s">
         <v>460</v>
       </c>
-      <c r="E10" t="s">
-        <v>439</v>
-      </c>
-      <c r="I10" t="s">
-        <v>452</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>461</v>
-      </c>
-      <c r="K10" t="s">
-        <v>462</v>
       </c>
       <c r="P10">
         <v>1.32</v>
@@ -5363,10 +5368,10 @@
         <v>1.22</v>
       </c>
       <c r="AZ10" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="BA10" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="BC10" s="1">
         <v>1.0009999999999999</v>
@@ -5375,30 +5380,30 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:98">
+    <row r="11" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J11" t="s">
+        <v>460</v>
+      </c>
+      <c r="K11" t="s">
         <v>461</v>
-      </c>
-      <c r="K11" t="s">
-        <v>462</v>
       </c>
       <c r="P11">
         <v>1.32</v>
@@ -5407,10 +5412,10 @@
         <v>1.22</v>
       </c>
       <c r="AZ11" t="s">
+        <v>464</v>
+      </c>
+      <c r="BA11" t="s">
         <v>465</v>
-      </c>
-      <c r="BA11" t="s">
-        <v>466</v>
       </c>
       <c r="BC11" s="1">
         <v>0.98</v>
@@ -5419,30 +5424,30 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:98">
+    <row r="12" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C12" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D12" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E12" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I12" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J12" t="s">
+        <v>460</v>
+      </c>
+      <c r="K12" t="s">
         <v>461</v>
-      </c>
-      <c r="K12" t="s">
-        <v>462</v>
       </c>
       <c r="P12">
         <v>1.32</v>
@@ -5451,10 +5456,10 @@
         <v>1.22</v>
       </c>
       <c r="AZ12" t="s">
+        <v>467</v>
+      </c>
+      <c r="BA12" t="s">
         <v>468</v>
-      </c>
-      <c r="BA12" t="s">
-        <v>469</v>
       </c>
       <c r="BC12" s="1">
         <v>0.97299999999999998</v>
@@ -5480,178 +5485,178 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D1" t="s">
+        <v>469</v>
+      </c>
+      <c r="E1" t="s">
         <v>470</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>471</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>472</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>473</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>474</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>475</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>476</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>477</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>478</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>479</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>480</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>481</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>482</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>483</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>484</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>485</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>486</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>487</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>488</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>489</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>490</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>491</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>492</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>493</v>
       </c>
-      <c r="AB1" t="s">
-        <v>494</v>
-      </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E2" t="s">
         <v>201</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>202</v>
       </c>
-      <c r="F2" t="s">
-        <v>203</v>
-      </c>
       <c r="G2" t="s">
+        <v>494</v>
+      </c>
+      <c r="H2" t="s">
         <v>495</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>496</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>497</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>498</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>499</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>500</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
+        <v>214</v>
+      </c>
+      <c r="O2" t="s">
+        <v>215</v>
+      </c>
+      <c r="P2" t="s">
         <v>501</v>
       </c>
-      <c r="N2" t="s">
-        <v>215</v>
-      </c>
-      <c r="O2" t="s">
-        <v>216</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>502</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>503</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
+        <v>221</v>
+      </c>
+      <c r="U2" t="s">
+        <v>222</v>
+      </c>
+      <c r="V2" t="s">
+        <v>223</v>
+      </c>
+      <c r="W2" t="s">
         <v>504</v>
       </c>
-      <c r="T2" t="s">
-        <v>222</v>
-      </c>
-      <c r="U2" t="s">
-        <v>223</v>
-      </c>
-      <c r="V2" t="s">
-        <v>224</v>
-      </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>505</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>506</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>507</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>508</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>509</v>
       </c>
-      <c r="AB2" t="s">
-        <v>510</v>
-      </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -5665,37 +5670,37 @@
         <v>37</v>
       </c>
       <c r="G3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H3" t="s">
+        <v>510</v>
+      </c>
+      <c r="L3" t="s">
         <v>511</v>
       </c>
-      <c r="L3" t="s">
-        <v>512</v>
-      </c>
       <c r="M3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="R3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="S3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="V3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="W3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="X3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Y3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -5713,475 +5718,475 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="AI1" sqref="AI1:AK1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:73" ht="52">
+    <row r="1" spans="1:73" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E1" t="s">
+        <v>512</v>
+      </c>
+      <c r="F1" t="s">
         <v>513</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>514</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>515</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>516</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>517</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>518</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>519</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>520</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>521</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>522</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>523</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>524</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>525</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>526</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>527</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>528</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>529</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>530</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>531</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>532</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>533</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>534</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>535</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>536</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>537</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>538</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>539</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>540</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>541</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="AL1" t="s">
         <v>542</v>
       </c>
-      <c r="AI1" s="2" t="s">
-        <v>904</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>905</v>
-      </c>
-      <c r="AK1" s="4" t="s">
-        <v>906</v>
-      </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>543</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>544</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>545</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>546</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>547</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>548</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>549</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>550</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>551</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>552</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>553</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>554</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>555</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>556</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>557</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>558</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>559</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>560</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>561</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>562</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>563</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>564</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>565</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>566</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>567</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>568</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>569</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>570</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>571</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>572</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>573</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>574</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>575</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>576</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>577</v>
       </c>
-      <c r="BU1" t="s">
-        <v>578</v>
-      </c>
     </row>
-    <row r="2" spans="1:73">
+    <row r="2" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E2" t="s">
+        <v>578</v>
+      </c>
+      <c r="F2" t="s">
         <v>579</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>580</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>581</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>582</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>583</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>584</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>585</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>586</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>587</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>588</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>589</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
+        <v>200</v>
+      </c>
+      <c r="R2" t="s">
+        <v>201</v>
+      </c>
+      <c r="S2" t="s">
+        <v>202</v>
+      </c>
+      <c r="U2" t="s">
         <v>590</v>
       </c>
-      <c r="Q2" t="s">
-        <v>201</v>
-      </c>
-      <c r="R2" t="s">
-        <v>202</v>
-      </c>
-      <c r="S2" t="s">
-        <v>203</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>591</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>592</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>593</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>594</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>595</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>596</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>597</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF2" t="s">
         <v>598</v>
       </c>
-      <c r="AC2" t="s">
-        <v>222</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>223</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>224</v>
-      </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>599</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>600</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>601</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>602</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>603</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2" t="s">
+        <v>385</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>386</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>387</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>391</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>392</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>393</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>394</v>
+      </c>
+      <c r="AS2" t="s">
         <v>604</v>
       </c>
-      <c r="AL2" t="s">
-        <v>386</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>387</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>388</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>392</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>393</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>394</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>395</v>
-      </c>
-      <c r="AS2" t="s">
+      <c r="AT2" t="s">
+        <v>396</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>397</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>398</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>399</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>400</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>401</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>402</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>403</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>404</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>405</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>406</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>407</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>408</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>410</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>411</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>412</v>
+      </c>
+      <c r="BJ2" t="s">
         <v>605</v>
       </c>
-      <c r="AT2" t="s">
-        <v>397</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>398</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>399</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>400</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>401</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>402</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>403</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>404</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>405</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>406</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>407</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>408</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>409</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>411</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>412</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>413</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>606</v>
-      </c>
       <c r="BK2" t="s">
+        <v>414</v>
+      </c>
+      <c r="BL2" t="s">
         <v>415</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BM2" t="s">
         <v>416</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BN2" t="s">
         <v>417</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BO2" t="s">
         <v>418</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BP2" t="s">
         <v>419</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BQ2" t="s">
         <v>420</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="BR2" t="s">
         <v>421</v>
       </c>
-      <c r="BR2" t="s">
+      <c r="BS2" t="s">
         <v>422</v>
       </c>
-      <c r="BS2" t="s">
+      <c r="BT2" t="s">
         <v>423</v>
       </c>
-      <c r="BT2" t="s">
-        <v>424</v>
-      </c>
       <c r="BU2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
-    <row r="3" spans="1:73">
+    <row r="3" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
       <c r="F3" t="s">
+        <v>606</v>
+      </c>
+      <c r="G3" t="s">
         <v>607</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>608</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>609</v>
       </c>
-      <c r="I3" t="s">
+      <c r="M3" t="s">
         <v>610</v>
       </c>
-      <c r="M3" t="s">
-        <v>611</v>
-      </c>
       <c r="N3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q3" t="s">
         <v>35</v>
@@ -6193,136 +6198,136 @@
         <v>37</v>
       </c>
       <c r="U3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="V3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="W3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="X3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Y3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AA3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AB3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AE3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AF3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AG3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AH3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AL3" t="s">
+        <v>433</v>
+      </c>
+      <c r="AM3" t="s">
         <v>434</v>
       </c>
-      <c r="AM3" t="s">
-        <v>435</v>
-      </c>
       <c r="AN3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AO3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AP3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AQ3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AR3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AT3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AU3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AV3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AW3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AY3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AZ3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="BA3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="BB3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="BD3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="BE3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="BF3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="BG3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="BH3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="BI3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="BJ3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="BK3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="BL3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="BM3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="BN3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="BO3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="BP3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="BQ3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="BR3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="BS3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="BT3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="BU3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -6342,184 +6347,184 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F1" t="s">
+        <v>612</v>
+      </c>
+      <c r="G1" t="s">
         <v>613</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>614</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>615</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>616</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>617</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>618</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>619</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>620</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>621</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>622</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>623</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>624</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>625</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>626</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>627</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>628</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>629</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>630</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>631</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>632</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>633</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>634</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>635</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>636</v>
       </c>
-      <c r="AD1" t="s">
-        <v>637</v>
-      </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
+        <v>637</v>
+      </c>
+      <c r="D2" t="s">
         <v>638</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>639</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>640</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>343</v>
+      </c>
+      <c r="H2" t="s">
+        <v>200</v>
+      </c>
+      <c r="I2" t="s">
+        <v>201</v>
+      </c>
+      <c r="J2" t="s">
+        <v>202</v>
+      </c>
+      <c r="K2" t="s">
         <v>641</v>
       </c>
-      <c r="G2" t="s">
-        <v>344</v>
-      </c>
-      <c r="H2" t="s">
-        <v>201</v>
-      </c>
-      <c r="I2" t="s">
-        <v>202</v>
-      </c>
-      <c r="J2" t="s">
-        <v>203</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>642</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>643</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>644</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>645</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>646</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>647</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>648</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
+        <v>221</v>
+      </c>
+      <c r="W2" t="s">
+        <v>222</v>
+      </c>
+      <c r="X2" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y2" t="s">
         <v>649</v>
       </c>
-      <c r="V2" t="s">
-        <v>222</v>
-      </c>
-      <c r="W2" t="s">
-        <v>223</v>
-      </c>
-      <c r="X2" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>650</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>651</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>652</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>653</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>654</v>
       </c>
-      <c r="AD2" t="s">
-        <v>655</v>
-      </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -6533,37 +6538,37 @@
         <v>37</v>
       </c>
       <c r="K3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="L3" t="s">
+        <v>655</v>
+      </c>
+      <c r="M3" t="s">
+        <v>141</v>
+      </c>
+      <c r="P3" t="s">
         <v>656</v>
       </c>
-      <c r="M3" t="s">
-        <v>142</v>
-      </c>
-      <c r="P3" t="s">
-        <v>657</v>
-      </c>
       <c r="Q3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="U3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="X3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Y3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Z3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AA3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -6583,999 +6588,999 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:44">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>657</v>
+      </c>
+      <c r="B1" t="s">
         <v>658</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>659</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>660</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>661</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>662</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>663</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>664</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>665</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>666</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>667</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>668</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>669</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>670</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>671</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>672</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>673</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>674</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>675</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>676</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>677</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>678</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>679</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>680</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>681</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>682</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>683</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>684</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>685</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>686</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>687</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>688</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>689</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>690</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>691</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>692</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>693</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>694</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>695</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>696</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>697</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>698</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>699</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>700</v>
       </c>
-      <c r="AR1" t="s">
+    </row>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L2" t="s">
+        <v>169</v>
+      </c>
+      <c r="M2" t="s">
+        <v>171</v>
+      </c>
+      <c r="N2" t="s">
+        <v>172</v>
+      </c>
+      <c r="O2" t="s">
+        <v>173</v>
+      </c>
+      <c r="P2" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>177</v>
+      </c>
+      <c r="R2" t="s">
+        <v>178</v>
+      </c>
+      <c r="S2" t="s">
+        <v>179</v>
+      </c>
+      <c r="T2" t="s">
+        <v>185</v>
+      </c>
+      <c r="U2" t="s">
+        <v>262</v>
+      </c>
+      <c r="V2" t="s">
+        <v>267</v>
+      </c>
+      <c r="W2" t="s">
+        <v>296</v>
+      </c>
+      <c r="X2" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>250</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>253</v>
+      </c>
+      <c r="AA2" t="s">
         <v>701</v>
       </c>
+      <c r="AB2" t="s">
+        <v>473</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>474</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>475</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>476</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>482</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>612</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>702</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>618</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>620</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>622</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>625</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>515</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>519</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>514</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>516</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>521</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>542</v>
+      </c>
     </row>
-    <row r="2" spans="1:44">
-      <c r="A2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J2" t="s">
-        <v>97</v>
-      </c>
-      <c r="K2" t="s">
-        <v>77</v>
-      </c>
-      <c r="L2" t="s">
-        <v>170</v>
-      </c>
-      <c r="M2" t="s">
-        <v>172</v>
-      </c>
-      <c r="N2" t="s">
-        <v>173</v>
-      </c>
-      <c r="O2" t="s">
-        <v>174</v>
-      </c>
-      <c r="P2" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>178</v>
-      </c>
-      <c r="R2" t="s">
-        <v>179</v>
-      </c>
-      <c r="S2" t="s">
-        <v>180</v>
-      </c>
-      <c r="T2" t="s">
-        <v>186</v>
-      </c>
-      <c r="U2" t="s">
-        <v>263</v>
-      </c>
-      <c r="V2" t="s">
-        <v>268</v>
-      </c>
-      <c r="W2" t="s">
-        <v>297</v>
-      </c>
-      <c r="X2" t="s">
-        <v>247</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>251</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>254</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>702</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>474</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>475</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>476</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>477</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>483</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>613</v>
-      </c>
-      <c r="AH2" t="s">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
         <v>703</v>
       </c>
-      <c r="AI2" t="s">
-        <v>619</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>621</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>623</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>626</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>516</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>520</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>515</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>517</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>522</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>543</v>
+      <c r="H3" t="s">
+        <v>704</v>
+      </c>
+      <c r="I3" t="s">
+        <v>705</v>
+      </c>
+      <c r="U3" t="s">
+        <v>704</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>581</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>706</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>707</v>
       </c>
     </row>
-    <row r="3" spans="1:44">
-      <c r="G3" t="s">
-        <v>704</v>
-      </c>
-      <c r="H3" t="s">
-        <v>705</v>
-      </c>
-      <c r="I3" t="s">
-        <v>706</v>
-      </c>
-      <c r="U3" t="s">
-        <v>705</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>582</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>707</v>
-      </c>
-      <c r="AP3" t="s">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>708</v>
       </c>
+      <c r="B4" t="s">
+        <v>709</v>
+      </c>
+      <c r="C4" t="s">
+        <v>710</v>
+      </c>
+      <c r="D4" t="s">
+        <v>711</v>
+      </c>
+      <c r="E4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" t="s">
+        <v>712</v>
+      </c>
+      <c r="G4" t="s">
+        <v>713</v>
+      </c>
+      <c r="H4" t="s">
+        <v>714</v>
+      </c>
+      <c r="I4" t="s">
+        <v>715</v>
+      </c>
+      <c r="J4" t="s">
+        <v>716</v>
+      </c>
+      <c r="K4" t="s">
+        <v>158</v>
+      </c>
+      <c r="L4" t="s">
+        <v>717</v>
+      </c>
+      <c r="M4" t="s">
+        <v>718</v>
+      </c>
+      <c r="N4" t="s">
+        <v>719</v>
+      </c>
+      <c r="O4" t="s">
+        <v>720</v>
+      </c>
+      <c r="P4" t="s">
+        <v>721</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>722</v>
+      </c>
+      <c r="R4" t="s">
+        <v>710</v>
+      </c>
+      <c r="S4" t="s">
+        <v>710</v>
+      </c>
+      <c r="T4" t="s">
+        <v>723</v>
+      </c>
+      <c r="U4" t="s">
+        <v>724</v>
+      </c>
+      <c r="V4" t="s">
+        <v>725</v>
+      </c>
+      <c r="W4" t="s">
+        <v>726</v>
+      </c>
+      <c r="X4" t="s">
+        <v>710</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>710</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>727</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>728</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>729</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>718</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>730</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>721</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>731</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>732</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>719</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>733</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>734</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>735</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>736</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>737</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>738</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>739</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>740</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>710</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>726</v>
+      </c>
     </row>
-    <row r="4" spans="1:44">
-      <c r="A4" t="s">
-        <v>709</v>
-      </c>
-      <c r="B4" t="s">
-        <v>710</v>
-      </c>
-      <c r="C4" t="s">
-        <v>711</v>
-      </c>
-      <c r="D4" t="s">
-        <v>712</v>
-      </c>
-      <c r="E4" t="s">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>741</v>
+      </c>
+      <c r="B5" t="s">
+        <v>742</v>
+      </c>
+      <c r="D5" t="s">
+        <v>743</v>
+      </c>
+      <c r="E5" t="s">
+        <v>744</v>
+      </c>
+      <c r="F5" t="s">
+        <v>745</v>
+      </c>
+      <c r="G5" t="s">
+        <v>746</v>
+      </c>
+      <c r="H5" t="s">
+        <v>747</v>
+      </c>
+      <c r="I5" t="s">
+        <v>748</v>
+      </c>
+      <c r="J5" t="s">
+        <v>749</v>
+      </c>
+      <c r="K5" t="s">
+        <v>750</v>
+      </c>
+      <c r="L5" t="s">
+        <v>751</v>
+      </c>
+      <c r="M5" t="s">
+        <v>752</v>
+      </c>
+      <c r="N5" t="s">
+        <v>753</v>
+      </c>
+      <c r="O5" t="s">
+        <v>754</v>
+      </c>
+      <c r="P5" t="s">
+        <v>755</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>756</v>
+      </c>
+      <c r="T5" t="s">
+        <v>757</v>
+      </c>
+      <c r="U5" t="s">
+        <v>758</v>
+      </c>
+      <c r="V5" t="s">
+        <v>759</v>
+      </c>
+      <c r="W5" t="s">
+        <v>760</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>761</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>762</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>752</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>763</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>755</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>764</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>765</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>753</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>766</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>767</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>768</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>769</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>770</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>771</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>772</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>773</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>774</v>
+      </c>
+      <c r="B6" t="s">
+        <v>775</v>
+      </c>
+      <c r="D6" t="s">
+        <v>776</v>
+      </c>
+      <c r="E6" t="s">
+        <v>777</v>
+      </c>
+      <c r="F6" t="s">
         <v>161</v>
       </c>
-      <c r="F4" t="s">
-        <v>713</v>
-      </c>
-      <c r="G4" t="s">
-        <v>714</v>
-      </c>
-      <c r="H4" t="s">
-        <v>715</v>
-      </c>
-      <c r="I4" t="s">
-        <v>716</v>
-      </c>
-      <c r="J4" t="s">
-        <v>717</v>
-      </c>
-      <c r="K4" t="s">
-        <v>159</v>
-      </c>
-      <c r="L4" t="s">
-        <v>718</v>
-      </c>
-      <c r="M4" t="s">
-        <v>719</v>
-      </c>
-      <c r="N4" t="s">
-        <v>720</v>
-      </c>
-      <c r="O4" t="s">
-        <v>721</v>
-      </c>
-      <c r="P4" t="s">
-        <v>722</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>723</v>
-      </c>
-      <c r="R4" t="s">
-        <v>711</v>
-      </c>
-      <c r="S4" t="s">
-        <v>711</v>
-      </c>
-      <c r="T4" t="s">
-        <v>724</v>
-      </c>
-      <c r="U4" t="s">
-        <v>725</v>
-      </c>
-      <c r="V4" t="s">
-        <v>726</v>
-      </c>
-      <c r="W4" t="s">
-        <v>727</v>
-      </c>
-      <c r="X4" t="s">
-        <v>711</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>711</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>728</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>729</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>730</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>719</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>731</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>722</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>732</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>733</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>720</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>734</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>735</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>736</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>737</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>738</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>739</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>740</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>741</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>711</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="5" spans="1:44">
-      <c r="A5" t="s">
-        <v>742</v>
-      </c>
-      <c r="B5" t="s">
-        <v>743</v>
-      </c>
-      <c r="D5" t="s">
-        <v>744</v>
-      </c>
-      <c r="E5" t="s">
-        <v>745</v>
-      </c>
-      <c r="F5" t="s">
-        <v>746</v>
-      </c>
-      <c r="G5" t="s">
-        <v>747</v>
-      </c>
-      <c r="H5" t="s">
-        <v>748</v>
-      </c>
-      <c r="I5" t="s">
-        <v>749</v>
-      </c>
-      <c r="J5" t="s">
-        <v>750</v>
-      </c>
-      <c r="K5" t="s">
-        <v>751</v>
-      </c>
-      <c r="L5" t="s">
-        <v>752</v>
-      </c>
-      <c r="M5" t="s">
-        <v>753</v>
-      </c>
-      <c r="N5" t="s">
-        <v>754</v>
-      </c>
-      <c r="O5" t="s">
-        <v>755</v>
-      </c>
-      <c r="P5" t="s">
-        <v>756</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>757</v>
-      </c>
-      <c r="T5" t="s">
-        <v>758</v>
-      </c>
-      <c r="U5" t="s">
-        <v>759</v>
-      </c>
-      <c r="V5" t="s">
-        <v>760</v>
-      </c>
-      <c r="W5" t="s">
-        <v>761</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>762</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>763</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>753</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>764</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>756</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>765</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>766</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>754</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>767</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>768</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>769</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>770</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>771</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>772</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>773</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>774</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="6" spans="1:44">
-      <c r="A6" t="s">
-        <v>775</v>
-      </c>
-      <c r="B6" t="s">
-        <v>776</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="G6" t="s">
+        <v>778</v>
+      </c>
+      <c r="H6" t="s">
+        <v>779</v>
+      </c>
+      <c r="I6" t="s">
+        <v>780</v>
+      </c>
+      <c r="J6" t="s">
+        <v>781</v>
+      </c>
+      <c r="L6" t="s">
+        <v>782</v>
+      </c>
+      <c r="M6" t="s">
+        <v>783</v>
+      </c>
+      <c r="N6" t="s">
+        <v>784</v>
+      </c>
+      <c r="O6" t="s">
+        <v>785</v>
+      </c>
+      <c r="P6" t="s">
+        <v>786</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>511</v>
+      </c>
+      <c r="T6" t="s">
+        <v>787</v>
+      </c>
+      <c r="U6" t="s">
+        <v>788</v>
+      </c>
+      <c r="V6" t="s">
+        <v>789</v>
+      </c>
+      <c r="W6" t="s">
+        <v>790</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>791</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>792</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>783</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>786</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>793</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>794</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>795</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>796</v>
+      </c>
+      <c r="AJ6" t="s">
         <v>777</v>
       </c>
-      <c r="E6" t="s">
-        <v>778</v>
-      </c>
-      <c r="F6" t="s">
-        <v>162</v>
-      </c>
-      <c r="G6" t="s">
-        <v>779</v>
-      </c>
-      <c r="H6" t="s">
-        <v>780</v>
-      </c>
-      <c r="I6" t="s">
-        <v>781</v>
-      </c>
-      <c r="J6" t="s">
-        <v>782</v>
-      </c>
-      <c r="L6" t="s">
-        <v>783</v>
-      </c>
-      <c r="M6" t="s">
-        <v>784</v>
-      </c>
-      <c r="N6" t="s">
-        <v>785</v>
-      </c>
-      <c r="O6" t="s">
-        <v>786</v>
-      </c>
-      <c r="P6" t="s">
-        <v>787</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>512</v>
-      </c>
-      <c r="T6" t="s">
-        <v>788</v>
-      </c>
-      <c r="U6" t="s">
-        <v>789</v>
-      </c>
-      <c r="V6" t="s">
-        <v>790</v>
-      </c>
-      <c r="W6" t="s">
-        <v>791</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>792</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>793</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>784</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>787</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>794</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>795</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>796</v>
-      </c>
-      <c r="AI6" t="s">
+      <c r="AM6" t="s">
         <v>797</v>
       </c>
-      <c r="AJ6" t="s">
-        <v>778</v>
-      </c>
-      <c r="AM6" t="s">
+      <c r="AN6" t="s">
         <v>798</v>
       </c>
-      <c r="AN6" t="s">
+      <c r="AO6" t="s">
         <v>799</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>800</v>
       </c>
       <c r="AP6" t="s">
         <v>36</v>
       </c>
       <c r="AR6" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
-    <row r="7" spans="1:44">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>800</v>
+      </c>
+      <c r="B7" t="s">
         <v>801</v>
       </c>
-      <c r="B7" t="s">
+      <c r="F7" t="s">
         <v>802</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>803</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>804</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>805</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>806</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>807</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>808</v>
       </c>
-      <c r="N7" t="s">
+      <c r="P7" t="s">
         <v>809</v>
       </c>
-      <c r="P7" t="s">
+      <c r="T7" t="s">
         <v>810</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>811</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>812</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>813</v>
       </c>
-      <c r="W7" t="s">
+      <c r="AC7" t="s">
+        <v>807</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>809</v>
+      </c>
+      <c r="AF7" t="s">
         <v>814</v>
       </c>
-      <c r="AC7" t="s">
-        <v>808</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>810</v>
-      </c>
-      <c r="AF7" t="s">
+      <c r="AG7" t="s">
         <v>815</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AI7" t="s">
         <v>816</v>
       </c>
-      <c r="AI7" t="s">
+      <c r="AM7" t="s">
         <v>817</v>
       </c>
-      <c r="AM7" t="s">
+      <c r="AN7" t="s">
         <v>818</v>
       </c>
-      <c r="AN7" t="s">
+      <c r="AO7" t="s">
         <v>819</v>
       </c>
-      <c r="AO7" t="s">
+      <c r="AP7" t="s">
         <v>820</v>
       </c>
-      <c r="AP7" t="s">
+      <c r="AR7" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>821</v>
       </c>
-      <c r="AR7" t="s">
-        <v>814</v>
+      <c r="B8" t="s">
+        <v>822</v>
+      </c>
+      <c r="F8" t="s">
+        <v>823</v>
+      </c>
+      <c r="G8" t="s">
+        <v>824</v>
+      </c>
+      <c r="H8" t="s">
+        <v>825</v>
+      </c>
+      <c r="J8" t="s">
+        <v>826</v>
+      </c>
+      <c r="L8" t="s">
+        <v>827</v>
+      </c>
+      <c r="M8" t="s">
+        <v>828</v>
+      </c>
+      <c r="N8" t="s">
+        <v>829</v>
+      </c>
+      <c r="P8" t="s">
+        <v>830</v>
+      </c>
+      <c r="T8" t="s">
+        <v>831</v>
+      </c>
+      <c r="U8" t="s">
+        <v>832</v>
+      </c>
+      <c r="V8" t="s">
+        <v>833</v>
+      </c>
+      <c r="W8" t="s">
+        <v>777</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>828</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>830</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>834</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>835</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>836</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>837</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>511</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>777</v>
       </c>
     </row>
-    <row r="8" spans="1:44">
-      <c r="A8" t="s">
-        <v>822</v>
-      </c>
-      <c r="B8" t="s">
-        <v>823</v>
-      </c>
-      <c r="F8" t="s">
-        <v>824</v>
-      </c>
-      <c r="G8" t="s">
-        <v>825</v>
-      </c>
-      <c r="H8" t="s">
-        <v>826</v>
-      </c>
-      <c r="J8" t="s">
-        <v>827</v>
-      </c>
-      <c r="L8" t="s">
-        <v>828</v>
-      </c>
-      <c r="M8" t="s">
-        <v>829</v>
-      </c>
-      <c r="N8" t="s">
-        <v>830</v>
-      </c>
-      <c r="P8" t="s">
-        <v>831</v>
-      </c>
-      <c r="T8" t="s">
-        <v>832</v>
-      </c>
-      <c r="U8" t="s">
-        <v>833</v>
-      </c>
-      <c r="V8" t="s">
-        <v>834</v>
-      </c>
-      <c r="W8" t="s">
-        <v>778</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>829</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>831</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>835</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>836</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>837</v>
-      </c>
-      <c r="AO8" t="s">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>838</v>
       </c>
-      <c r="AP8" t="s">
-        <v>512</v>
-      </c>
-      <c r="AR8" t="s">
-        <v>778</v>
+      <c r="B9" t="s">
+        <v>839</v>
+      </c>
+      <c r="F9" t="s">
+        <v>840</v>
+      </c>
+      <c r="G9" t="s">
+        <v>841</v>
+      </c>
+      <c r="H9" t="s">
+        <v>842</v>
+      </c>
+      <c r="J9" t="s">
+        <v>843</v>
+      </c>
+      <c r="L9" t="s">
+        <v>844</v>
+      </c>
+      <c r="M9" t="s">
+        <v>845</v>
+      </c>
+      <c r="P9" t="s">
+        <v>846</v>
+      </c>
+      <c r="T9" t="s">
+        <v>847</v>
+      </c>
+      <c r="U9" t="s">
+        <v>848</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>849</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>845</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>850</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>851</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>852</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>853</v>
       </c>
     </row>
-    <row r="9" spans="1:44">
-      <c r="A9" t="s">
-        <v>839</v>
-      </c>
-      <c r="B9" t="s">
-        <v>840</v>
-      </c>
-      <c r="F9" t="s">
-        <v>841</v>
-      </c>
-      <c r="G9" t="s">
-        <v>842</v>
-      </c>
-      <c r="H9" t="s">
-        <v>843</v>
-      </c>
-      <c r="J9" t="s">
-        <v>844</v>
-      </c>
-      <c r="L9" t="s">
-        <v>845</v>
-      </c>
-      <c r="M9" t="s">
-        <v>846</v>
-      </c>
-      <c r="P9" t="s">
-        <v>847</v>
-      </c>
-      <c r="T9" t="s">
-        <v>848</v>
-      </c>
-      <c r="U9" t="s">
-        <v>849</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>850</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>846</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>851</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>852</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>853</v>
-      </c>
-      <c r="AP9" t="s">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>854</v>
       </c>
+      <c r="B10" t="s">
+        <v>855</v>
+      </c>
+      <c r="F10" t="s">
+        <v>856</v>
+      </c>
+      <c r="G10" t="s">
+        <v>857</v>
+      </c>
+      <c r="H10" t="s">
+        <v>858</v>
+      </c>
+      <c r="U10" t="s">
+        <v>859</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>860</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>861</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>862</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>863</v>
+      </c>
     </row>
-    <row r="10" spans="1:44">
-      <c r="A10" t="s">
-        <v>855</v>
-      </c>
-      <c r="B10" t="s">
-        <v>856</v>
-      </c>
-      <c r="F10" t="s">
-        <v>857</v>
-      </c>
-      <c r="G10" t="s">
-        <v>858</v>
-      </c>
-      <c r="H10" t="s">
-        <v>859</v>
-      </c>
-      <c r="U10" t="s">
-        <v>860</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>861</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>862</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>863</v>
-      </c>
-      <c r="AP10" t="s">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
         <v>864</v>
       </c>
+      <c r="F11" t="s">
+        <v>865</v>
+      </c>
+      <c r="H11" t="s">
+        <v>866</v>
+      </c>
+      <c r="U11" t="s">
+        <v>867</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>868</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>869</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>869</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>870</v>
+      </c>
     </row>
-    <row r="11" spans="1:44">
-      <c r="B11" t="s">
-        <v>865</v>
-      </c>
-      <c r="F11" t="s">
-        <v>866</v>
-      </c>
-      <c r="H11" t="s">
-        <v>867</v>
-      </c>
-      <c r="U11" t="s">
-        <v>868</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>869</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>870</v>
-      </c>
-      <c r="AO11" t="s">
-        <v>870</v>
-      </c>
-      <c r="AP11" t="s">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="H12" t="s">
         <v>871</v>
       </c>
+      <c r="U12" t="s">
+        <v>872</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>873</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>874</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>875</v>
+      </c>
     </row>
-    <row r="12" spans="1:44">
-      <c r="H12" t="s">
-        <v>872</v>
-      </c>
-      <c r="U12" t="s">
-        <v>873</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>874</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>875</v>
-      </c>
-      <c r="AO12" t="s">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="U13" t="s">
         <v>876</v>
       </c>
+      <c r="AM13" t="s">
+        <v>877</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>878</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>879</v>
+      </c>
     </row>
-    <row r="13" spans="1:44">
-      <c r="U13" t="s">
-        <v>877</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>878</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>879</v>
-      </c>
-      <c r="AO13" t="s">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="U14" t="s">
         <v>880</v>
       </c>
+      <c r="AN14" t="s">
+        <v>881</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>882</v>
+      </c>
     </row>
-    <row r="14" spans="1:44">
-      <c r="U14" t="s">
-        <v>881</v>
-      </c>
-      <c r="AN14" t="s">
-        <v>882</v>
-      </c>
-      <c r="AO14" t="s">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="U15" t="s">
         <v>883</v>
       </c>
+      <c r="AN15" t="s">
+        <v>884</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>885</v>
+      </c>
     </row>
-    <row r="15" spans="1:44">
-      <c r="U15" t="s">
-        <v>884</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>885</v>
-      </c>
-      <c r="AO15" t="s">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="U16" t="s">
         <v>886</v>
       </c>
+      <c r="AN16" t="s">
+        <v>887</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>888</v>
+      </c>
     </row>
-    <row r="16" spans="1:44">
-      <c r="U16" t="s">
-        <v>887</v>
-      </c>
-      <c r="AN16" t="s">
-        <v>888</v>
-      </c>
-      <c r="AO16" t="s">
+    <row r="17" spans="40:41" x14ac:dyDescent="0.3">
+      <c r="AN17" t="s">
         <v>889</v>
       </c>
+      <c r="AO17" t="s">
+        <v>890</v>
+      </c>
     </row>
-    <row r="17" spans="40:41">
-      <c r="AN17" t="s">
-        <v>890</v>
-      </c>
-      <c r="AO17" t="s">
+    <row r="18" spans="40:41" x14ac:dyDescent="0.3">
+      <c r="AN18" t="s">
         <v>891</v>
       </c>
+      <c r="AO18" t="s">
+        <v>892</v>
+      </c>
     </row>
-    <row r="18" spans="40:41">
-      <c r="AN18" t="s">
-        <v>892</v>
-      </c>
-      <c r="AO18" t="s">
+    <row r="19" spans="40:41" x14ac:dyDescent="0.3">
+      <c r="AN19" t="s">
         <v>893</v>
       </c>
+      <c r="AO19" t="s">
+        <v>894</v>
+      </c>
     </row>
-    <row r="19" spans="40:41">
-      <c r="AN19" t="s">
-        <v>894</v>
-      </c>
-      <c r="AO19" t="s">
+    <row r="20" spans="40:41" x14ac:dyDescent="0.3">
+      <c r="AN20" t="s">
         <v>895</v>
       </c>
+      <c r="AO20" t="s">
+        <v>896</v>
+      </c>
     </row>
-    <row r="20" spans="40:41">
-      <c r="AN20" t="s">
-        <v>896</v>
-      </c>
-      <c r="AO20" t="s">
+    <row r="21" spans="40:41" x14ac:dyDescent="0.3">
+      <c r="AN21" t="s">
         <v>897</v>
-      </c>
-    </row>
-    <row r="21" spans="40:41">
-      <c r="AN21" t="s">
-        <v>898</v>
       </c>
     </row>
   </sheetData>

--- a/ISRaD_data_files/Chiti_2010.xlsx
+++ b/ISRaD_data_files/Chiti_2010.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10115"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alkalifly/Documents/ISRaD/ISRaD_data_files/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6017A12F-851D-DB4F-8F6D-AEB213517854}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="2780" yWindow="460" windowWidth="30820" windowHeight="18500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -17,8 +23,13 @@
     <sheet name="incubation" sheetId="8" r:id="rId8"/>
     <sheet name="controlled vocabulary" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="907">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="915">
   <si>
     <t>entry_name</t>
   </si>
@@ -518,9 +529,6 @@
     <t>tropical forest;deciduous;NA</t>
   </si>
   <si>
-    <t>Ankasa:5.26,-2.58_371</t>
-  </si>
-  <si>
     <t>flx_lat</t>
   </si>
   <si>
@@ -1340,9 +1348,6 @@
     <t>% or +/++/+++</t>
   </si>
   <si>
-    <t>Ankasa3:5.26,-2.58_373_0_3</t>
-  </si>
-  <si>
     <t>2008</t>
   </si>
   <si>
@@ -1361,27 +1366,18 @@
     <t>2.1</t>
   </si>
   <si>
-    <t>Ankasa:5.26,-2.58_371_0_3</t>
-  </si>
-  <si>
     <t>100.1</t>
   </si>
   <si>
     <t>2.3</t>
   </si>
   <si>
-    <t>Ankasa2:5.26,-2.58_372_0_3</t>
-  </si>
-  <si>
     <t>98.2</t>
   </si>
   <si>
     <t>2.2</t>
   </si>
   <si>
-    <t>Ankasa3:5.26,-2.58_373_3_45</t>
-  </si>
-  <si>
     <t>45</t>
   </si>
   <si>
@@ -1391,24 +1387,15 @@
     <t>76.4</t>
   </si>
   <si>
-    <t>Ankasa2:5.26,-2.58_372_3_45</t>
-  </si>
-  <si>
     <t>74.5</t>
   </si>
   <si>
-    <t>Ankasa:5.26,-2.58_371_3_45</t>
-  </si>
-  <si>
     <t>67.8</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>Ankasa2:5.26,-2.58_372_45_100</t>
-  </si>
-  <si>
     <t>100</t>
   </si>
   <si>
@@ -1418,16 +1405,10 @@
     <t>8.3</t>
   </si>
   <si>
-    <t>Ankasa:5.26,-2.58_371_45_100</t>
-  </si>
-  <si>
     <t>-13.3</t>
   </si>
   <si>
     <t>1.8</t>
-  </si>
-  <si>
-    <t>Ankasa3:5.26,-2.58_373_45_100</t>
   </si>
   <si>
     <t>-20.5</t>
@@ -2727,15 +2708,6 @@
     <t>Ankasa</t>
   </si>
   <si>
-    <t>Ankasa:5.26,-2.58_372</t>
-  </si>
-  <si>
-    <t>Ankasa:5.26,-2.58_373</t>
-  </si>
-  <si>
-    <t>Three profiles are actually three replications for a single profile</t>
-  </si>
-  <si>
     <t>Chiti, T., Certini, G., Grieco, E. et al. (2010) The role of soil in storing carbon in tropical rainforests: the case of Ankasa Park, Ghana; Plant Soil 331: 453</t>
   </si>
   <si>
@@ -2749,12 +2721,75 @@
   </si>
   <si>
     <t>10.1007/s11104-009-0265-x</t>
+  </si>
+  <si>
+    <t>The reported profile is a composite of many samples throughout the site. Three independent radiocarbon measurements were taken for each horizon, each from a separate composite of samples, so each is independent. But the rest of the profile characteristics are only reported once, so the radiocarbon mean (reported) is used for the layer, and the independent replicates are given as fractions.</t>
+  </si>
+  <si>
+    <t>pro_lc_phenology</t>
+  </si>
+  <si>
+    <t>pro_lc_leaf_type</t>
+  </si>
+  <si>
+    <t>pro_lc_photosyn_path</t>
+  </si>
+  <si>
+    <t>Forest or Shrubland Phenology (leave blank if unknown)</t>
+  </si>
+  <si>
+    <t>Forest Leaf Morphology (leave blank if unknown)</t>
+  </si>
+  <si>
+    <t>Photosynthetic Pathway (leave blank if unknown)</t>
+  </si>
+  <si>
+    <t>(phenology)</t>
+  </si>
+  <si>
+    <t>(leaf type)</t>
+  </si>
+  <si>
+    <t>(photosynthetic pathway)</t>
+  </si>
+  <si>
+    <t>deciduous</t>
+  </si>
+  <si>
+    <t>broadleaf</t>
+  </si>
+  <si>
+    <t>0_3</t>
+  </si>
+  <si>
+    <t>3_45</t>
+  </si>
+  <si>
+    <t>45_100</t>
+  </si>
+  <si>
+    <t>Charcoal data is available in the original reference</t>
+  </si>
+  <si>
+    <t>Abenia</t>
+  </si>
+  <si>
+    <t>bulk</t>
+  </si>
+  <si>
+    <t>rep1</t>
+  </si>
+  <si>
+    <t>rep2</t>
+  </si>
+  <si>
+    <t>rep3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2878,24 +2913,27 @@
     </xf>
   </cellXfs>
   <cellStyles count="12">
-    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal_layer" xfId="3"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal_layer" xfId="3" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3179,16 +3217,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3238,7 +3276,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3285,7 +3323,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -3323,12 +3361,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>906</v>
+        <v>893</v>
       </c>
       <c r="C4" t="s">
         <v>44</v>
@@ -3358,7 +3396,10 @@
         <v>51</v>
       </c>
       <c r="M4" t="s">
-        <v>902</v>
+        <v>889</v>
+      </c>
+      <c r="N4" t="s">
+        <v>909</v>
       </c>
       <c r="P4" t="s">
         <v>52</v>
@@ -3376,19 +3417,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="41.77734375" customWidth="1"/>
+    <col min="2" max="2" width="41.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3411,7 +3452,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3434,7 +3475,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -3451,12 +3492,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
       <c r="C4" t="s">
         <v>68</v>
@@ -3480,19 +3521,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AM4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3554,55 +3595,64 @@
         <v>88</v>
       </c>
       <c r="U1" t="s">
+        <v>895</v>
+      </c>
+      <c r="V1" t="s">
+        <v>896</v>
+      </c>
+      <c r="W1" t="s">
+        <v>897</v>
+      </c>
+      <c r="X1" t="s">
         <v>89</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>90</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>91</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>92</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>93</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>94</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
         <v>95</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AE1" t="s">
         <v>96</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AF1" t="s">
         <v>97</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AG1" t="s">
         <v>98</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AH1" t="s">
         <v>99</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AI1" t="s">
         <v>100</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AJ1" t="s">
         <v>101</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AK1" t="s">
         <v>102</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AL1" t="s">
         <v>103</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AM1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3664,55 +3714,64 @@
         <v>120</v>
       </c>
       <c r="U2" t="s">
+        <v>898</v>
+      </c>
+      <c r="V2" t="s">
+        <v>899</v>
+      </c>
+      <c r="W2" t="s">
+        <v>900</v>
+      </c>
+      <c r="X2" t="s">
         <v>121</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Y2" t="s">
         <v>122</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Z2" t="s">
         <v>123</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AA2" t="s">
         <v>124</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AB2" t="s">
         <v>125</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AC2" t="s">
         <v>126</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AD2" t="s">
         <v>127</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AE2" t="s">
         <v>128</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AF2" t="s">
         <v>129</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AG2" t="s">
         <v>130</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AH2" t="s">
         <v>131</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AI2" t="s">
         <v>132</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AJ2" t="s">
         <v>133</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AK2" t="s">
         <v>134</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AL2" t="s">
         <v>135</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AM2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -3759,70 +3818,85 @@
         <v>146</v>
       </c>
       <c r="U3" t="s">
+        <v>901</v>
+      </c>
+      <c r="V3" t="s">
+        <v>902</v>
+      </c>
+      <c r="W3" t="s">
+        <v>903</v>
+      </c>
+      <c r="X3" t="s">
         <v>147</v>
       </c>
-      <c r="V3" t="s">
+      <c r="Y3" t="s">
         <v>148</v>
       </c>
-      <c r="W3" t="s">
+      <c r="Z3" t="s">
         <v>148</v>
       </c>
-      <c r="X3" t="s">
+      <c r="AA3" t="s">
         <v>148</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AB3" t="s">
         <v>149</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AC3" t="s">
         <v>150</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AD3" t="s">
         <v>151</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AE3" t="s">
         <v>152</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AF3" t="s">
         <v>153</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AG3" t="s">
         <v>154</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AH3" t="s">
         <v>145</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AI3" t="s">
         <v>155</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AJ3" t="s">
         <v>156</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AK3" t="s">
         <v>157</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AL3" t="s">
         <v>157</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AM3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
       <c r="D4" t="s">
-        <v>900</v>
+        <v>910</v>
       </c>
       <c r="E4" t="s">
-        <v>901</v>
+        <v>894</v>
       </c>
       <c r="H4" t="s">
         <v>158</v>
       </c>
+      <c r="L4">
+        <v>25</v>
+      </c>
+      <c r="M4">
+        <v>2000</v>
+      </c>
       <c r="N4" t="s">
         <v>159</v>
       </c>
@@ -3833,64 +3907,12 @@
         <v>161</v>
       </c>
       <c r="U4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" t="s">
-        <v>898</v>
-      </c>
-      <c r="D5" t="s">
-        <v>163</v>
-      </c>
-      <c r="E5" t="s">
-        <v>901</v>
-      </c>
-      <c r="H5" t="s">
-        <v>158</v>
-      </c>
-      <c r="N5" t="s">
-        <v>159</v>
-      </c>
-      <c r="P5" t="s">
-        <v>160</v>
-      </c>
-      <c r="T5" t="s">
-        <v>161</v>
-      </c>
-      <c r="U5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" t="s">
-        <v>898</v>
-      </c>
-      <c r="D6" t="s">
-        <v>899</v>
-      </c>
-      <c r="E6" t="s">
-        <v>901</v>
-      </c>
-      <c r="H6" t="s">
-        <v>158</v>
-      </c>
-      <c r="N6" t="s">
-        <v>159</v>
-      </c>
-      <c r="P6" t="s">
-        <v>160</v>
-      </c>
-      <c r="T6" t="s">
-        <v>161</v>
-      </c>
-      <c r="U6" t="s">
+        <v>904</v>
+      </c>
+      <c r="V4" t="s">
+        <v>905</v>
+      </c>
+      <c r="X4" t="s">
         <v>162</v>
       </c>
     </row>
@@ -3906,14 +3928,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AK3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3927,106 +3949,106 @@
         <v>72</v>
       </c>
       <c r="E1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1" t="s">
         <v>164</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>165</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>166</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>167</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>168</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>169</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>170</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>171</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>172</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>173</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>174</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>175</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>176</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>177</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>178</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>179</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>180</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>181</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>182</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>183</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>184</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>185</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>186</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>187</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>188</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>189</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>190</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>191</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>192</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>193</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>194</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>195</v>
       </c>
-      <c r="AK1" t="s">
-        <v>196</v>
-      </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -4037,106 +4059,106 @@
         <v>105</v>
       </c>
       <c r="D2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E2" t="s">
         <v>197</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>198</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>199</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>200</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>201</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>202</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>203</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>204</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>205</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>206</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>207</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>208</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>209</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>210</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>211</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>212</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>213</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>214</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>215</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>216</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>217</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>218</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>219</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>220</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>221</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>222</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>223</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>224</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>225</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>226</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>227</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>228</v>
       </c>
-      <c r="AK2" t="s">
-        <v>229</v>
-      </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -4156,25 +4178,25 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
+        <v>229</v>
+      </c>
+      <c r="L3" t="s">
         <v>230</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>231</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>232</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>233</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>234</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>235</v>
-      </c>
-      <c r="R3" t="s">
-        <v>236</v>
       </c>
       <c r="S3" t="s">
         <v>139</v>
@@ -4183,7 +4205,7 @@
         <v>139</v>
       </c>
       <c r="U3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="V3" t="s">
         <v>145</v>
@@ -4192,28 +4214,28 @@
         <v>145</v>
       </c>
       <c r="Z3" t="s">
+        <v>237</v>
+      </c>
+      <c r="AA3" t="s">
         <v>238</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC3" t="s">
         <v>239</v>
       </c>
-      <c r="AB3" t="s">
-        <v>239</v>
-      </c>
-      <c r="AC3" t="s">
+      <c r="AE3" t="s">
         <v>240</v>
       </c>
-      <c r="AE3" t="s">
-        <v>241</v>
-      </c>
       <c r="AF3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AG3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AH3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -4228,20 +4250,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:CT12"/>
   <sheetViews>
-    <sheetView topLeftCell="AO1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S7" sqref="S7:V9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4252,292 +4274,292 @@
         <v>72</v>
       </c>
       <c r="D1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E1" t="s">
         <v>242</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>243</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>244</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>245</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>246</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>247</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>248</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>249</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>250</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>251</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>252</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>253</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>254</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>255</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>256</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>257</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>258</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>259</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>260</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>261</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>262</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>263</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>264</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>265</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>266</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>267</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>268</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>269</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>270</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>271</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>272</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>273</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>274</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>275</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>276</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>277</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>278</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>279</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>280</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>281</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>282</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>283</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>284</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>285</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>286</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>287</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>288</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>289</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>290</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>291</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>292</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>293</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>294</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>295</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>296</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>297</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>298</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>299</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>300</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>301</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>302</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>303</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>304</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>305</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>306</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>307</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>308</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>309</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>310</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>311</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>312</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BX1" t="s">
         <v>313</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BY1" t="s">
         <v>314</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BZ1" t="s">
         <v>315</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CA1" t="s">
         <v>316</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CB1" t="s">
         <v>317</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CC1" t="s">
         <v>318</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CD1" t="s">
         <v>319</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CE1" t="s">
         <v>320</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CF1" t="s">
         <v>321</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CG1" t="s">
         <v>322</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CH1" t="s">
         <v>323</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CI1" t="s">
         <v>324</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CJ1" t="s">
         <v>325</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CK1" t="s">
         <v>326</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CL1" t="s">
         <v>327</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CM1" t="s">
         <v>328</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CN1" t="s">
         <v>329</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CO1" t="s">
         <v>330</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CP1" t="s">
         <v>331</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CQ1" t="s">
         <v>332</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CR1" t="s">
         <v>333</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CS1" t="s">
         <v>334</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CT1" t="s">
         <v>335</v>
       </c>
-      <c r="CT1" t="s">
-        <v>336</v>
-      </c>
     </row>
-    <row r="2" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -4548,292 +4570,292 @@
         <v>106</v>
       </c>
       <c r="D2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G2" t="s">
+        <v>201</v>
+      </c>
+      <c r="H2" t="s">
         <v>337</v>
       </c>
-      <c r="E2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F2" t="s">
-        <v>201</v>
-      </c>
-      <c r="G2" t="s">
-        <v>202</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>338</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>339</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>340</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>341</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>342</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>343</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>344</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>345</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>346</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>347</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>348</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>349</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>350</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>351</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>352</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>353</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>354</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>355</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>356</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>357</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>358</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>359</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>360</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>361</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>362</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>363</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>364</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>365</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>366</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2" t="s">
         <v>367</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AM2" t="s">
         <v>368</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
         <v>369</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>370</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>371</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
         <v>372</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AR2" t="s">
         <v>373</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
         <v>374</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AT2" t="s">
         <v>375</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AU2" t="s">
         <v>376</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AV2" t="s">
         <v>377</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AW2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AZ2" t="s">
         <v>378</v>
       </c>
-      <c r="AW2" t="s">
-        <v>221</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>222</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>223</v>
-      </c>
-      <c r="AZ2" t="s">
+      <c r="BA2" t="s">
         <v>379</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BB2" t="s">
         <v>380</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BC2" t="s">
         <v>381</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BD2" t="s">
         <v>382</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BE2" t="s">
         <v>383</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BF2" t="s">
         <v>384</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BG2" t="s">
         <v>385</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BH2" t="s">
         <v>386</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BI2" t="s">
         <v>387</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BJ2" t="s">
         <v>388</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BK2" t="s">
         <v>389</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BL2" t="s">
         <v>390</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BM2" t="s">
         <v>391</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BN2" t="s">
         <v>392</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BO2" t="s">
         <v>393</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BP2" t="s">
         <v>394</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BQ2" t="s">
         <v>395</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="BR2" t="s">
         <v>396</v>
       </c>
-      <c r="BR2" t="s">
+      <c r="BS2" t="s">
         <v>397</v>
       </c>
-      <c r="BS2" t="s">
+      <c r="BT2" t="s">
         <v>398</v>
       </c>
-      <c r="BT2" t="s">
+      <c r="BU2" t="s">
         <v>399</v>
       </c>
-      <c r="BU2" t="s">
+      <c r="BV2" t="s">
         <v>400</v>
       </c>
-      <c r="BV2" t="s">
+      <c r="BW2" t="s">
         <v>401</v>
       </c>
-      <c r="BW2" t="s">
+      <c r="BX2" t="s">
         <v>402</v>
       </c>
-      <c r="BX2" t="s">
+      <c r="BY2" t="s">
         <v>403</v>
       </c>
-      <c r="BY2" t="s">
+      <c r="BZ2" t="s">
         <v>404</v>
       </c>
-      <c r="BZ2" t="s">
+      <c r="CA2" t="s">
         <v>405</v>
       </c>
-      <c r="CA2" t="s">
+      <c r="CB2" t="s">
         <v>406</v>
       </c>
-      <c r="CB2" t="s">
+      <c r="CC2" t="s">
         <v>407</v>
       </c>
-      <c r="CC2" t="s">
+      <c r="CD2" t="s">
         <v>408</v>
       </c>
-      <c r="CD2" t="s">
+      <c r="CE2" t="s">
         <v>409</v>
       </c>
-      <c r="CE2" t="s">
+      <c r="CF2" t="s">
         <v>410</v>
       </c>
-      <c r="CF2" t="s">
+      <c r="CG2" t="s">
         <v>411</v>
       </c>
-      <c r="CG2" t="s">
+      <c r="CH2" t="s">
         <v>412</v>
       </c>
-      <c r="CH2" t="s">
+      <c r="CI2" t="s">
         <v>413</v>
       </c>
-      <c r="CI2" t="s">
+      <c r="CJ2" t="s">
         <v>414</v>
       </c>
-      <c r="CJ2" t="s">
+      <c r="CK2" t="s">
         <v>415</v>
       </c>
-      <c r="CK2" t="s">
+      <c r="CL2" t="s">
         <v>416</v>
       </c>
-      <c r="CL2" t="s">
+      <c r="CM2" t="s">
         <v>417</v>
       </c>
-      <c r="CM2" t="s">
+      <c r="CN2" t="s">
         <v>418</v>
       </c>
-      <c r="CN2" t="s">
+      <c r="CO2" t="s">
         <v>419</v>
       </c>
-      <c r="CO2" t="s">
+      <c r="CP2" t="s">
         <v>420</v>
       </c>
-      <c r="CP2" t="s">
+      <c r="CQ2" t="s">
         <v>421</v>
       </c>
-      <c r="CQ2" t="s">
+      <c r="CR2" t="s">
         <v>422</v>
       </c>
-      <c r="CR2" t="s">
+      <c r="CS2" t="s">
         <v>423</v>
       </c>
-      <c r="CS2" t="s">
+      <c r="CT2" t="s">
         <v>424</v>
       </c>
-      <c r="CT2" t="s">
-        <v>425</v>
-      </c>
     </row>
-    <row r="3" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -4859,13 +4881,13 @@
         <v>139</v>
       </c>
       <c r="O3" t="s">
+        <v>425</v>
+      </c>
+      <c r="P3" t="s">
         <v>426</v>
       </c>
-      <c r="P3" t="s">
-        <v>427</v>
-      </c>
       <c r="Q3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="S3" t="s">
         <v>145</v>
@@ -4883,34 +4905,34 @@
         <v>36</v>
       </c>
       <c r="X3" t="s">
+        <v>427</v>
+      </c>
+      <c r="AC3" t="s">
         <v>428</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>429</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>430</v>
       </c>
-      <c r="AE3" t="s">
-        <v>431</v>
-      </c>
       <c r="AF3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AG3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AH3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AI3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AJ3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AK3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AL3" t="s">
         <v>145</v>
@@ -4934,541 +4956,362 @@
         <v>145</v>
       </c>
       <c r="AS3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AT3" t="s">
         <v>145</v>
       </c>
       <c r="AU3" t="s">
+        <v>238</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>238</v>
+      </c>
+      <c r="AW3" t="s">
         <v>239</v>
       </c>
-      <c r="AV3" t="s">
-        <v>239</v>
-      </c>
-      <c r="AW3" t="s">
+      <c r="AY3" t="s">
         <v>240</v>
       </c>
-      <c r="AY3" t="s">
-        <v>241</v>
-      </c>
       <c r="AZ3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="BA3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="BB3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="BE3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="BF3" t="s">
+        <v>432</v>
+      </c>
+      <c r="BG3" t="s">
         <v>433</v>
       </c>
-      <c r="BG3" t="s">
+      <c r="BH3" t="s">
+        <v>433</v>
+      </c>
+      <c r="BL3" t="s">
         <v>434</v>
       </c>
-      <c r="BH3" t="s">
+      <c r="BM3" t="s">
         <v>434</v>
       </c>
-      <c r="BL3" t="s">
+      <c r="BN3" t="s">
+        <v>434</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>434</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>434</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>434</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>434</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>434</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>434</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>434</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>434</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>434</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>434</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>434</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>434</v>
+      </c>
+      <c r="CC3" t="s">
+        <v>434</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>434</v>
+      </c>
+      <c r="CE3" t="s">
         <v>435</v>
       </c>
-      <c r="BM3" t="s">
+      <c r="CF3" t="s">
         <v>435</v>
       </c>
-      <c r="BN3" t="s">
+      <c r="CG3" t="s">
         <v>435</v>
       </c>
-      <c r="BO3" t="s">
+      <c r="CH3" t="s">
         <v>435</v>
       </c>
-      <c r="BQ3" t="s">
+      <c r="CI3" t="s">
         <v>435</v>
       </c>
-      <c r="BR3" t="s">
+      <c r="CJ3" t="s">
         <v>435</v>
       </c>
-      <c r="BS3" t="s">
+      <c r="CK3" t="s">
         <v>435</v>
       </c>
-      <c r="BT3" t="s">
+      <c r="CL3" t="s">
         <v>435</v>
       </c>
-      <c r="BV3" t="s">
+      <c r="CM3" t="s">
         <v>435</v>
       </c>
-      <c r="BW3" t="s">
+      <c r="CN3" t="s">
         <v>435</v>
       </c>
-      <c r="BX3" t="s">
+      <c r="CO3" t="s">
         <v>435</v>
       </c>
-      <c r="BY3" t="s">
+      <c r="CP3" t="s">
         <v>435</v>
       </c>
-      <c r="BZ3" t="s">
+      <c r="CQ3" t="s">
         <v>435</v>
       </c>
-      <c r="CA3" t="s">
+      <c r="CR3" t="s">
         <v>435</v>
       </c>
-      <c r="CB3" t="s">
+      <c r="CS3" t="s">
         <v>435</v>
       </c>
-      <c r="CC3" t="s">
+      <c r="CT3" t="s">
         <v>435</v>
       </c>
-      <c r="CD3" t="s">
-        <v>435</v>
-      </c>
-      <c r="CE3" t="s">
-        <v>436</v>
-      </c>
-      <c r="CF3" t="s">
-        <v>436</v>
-      </c>
-      <c r="CG3" t="s">
-        <v>436</v>
-      </c>
-      <c r="CH3" t="s">
-        <v>436</v>
-      </c>
-      <c r="CI3" t="s">
-        <v>436</v>
-      </c>
-      <c r="CJ3" t="s">
-        <v>436</v>
-      </c>
-      <c r="CK3" t="s">
-        <v>436</v>
-      </c>
-      <c r="CL3" t="s">
-        <v>436</v>
-      </c>
-      <c r="CM3" t="s">
-        <v>436</v>
-      </c>
-      <c r="CN3" t="s">
-        <v>436</v>
-      </c>
-      <c r="CO3" t="s">
-        <v>436</v>
-      </c>
-      <c r="CP3" t="s">
-        <v>436</v>
-      </c>
-      <c r="CQ3" t="s">
-        <v>436</v>
-      </c>
-      <c r="CR3" t="s">
-        <v>436</v>
-      </c>
-      <c r="CS3" t="s">
-        <v>436</v>
-      </c>
-      <c r="CT3" t="s">
-        <v>436</v>
-      </c>
     </row>
-    <row r="4" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
       <c r="C4" t="s">
-        <v>900</v>
+        <v>910</v>
       </c>
       <c r="D4" t="s">
+        <v>906</v>
+      </c>
+      <c r="E4" t="s">
+        <v>436</v>
+      </c>
+      <c r="I4" t="s">
         <v>437</v>
       </c>
-      <c r="E4" t="s">
+      <c r="J4" t="s">
         <v>438</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>439</v>
       </c>
-      <c r="J4" t="s">
-        <v>440</v>
-      </c>
-      <c r="K4" t="s">
-        <v>441</v>
-      </c>
       <c r="P4">
-        <v>0.90200000000000002</v>
+        <v>1.39</v>
+      </c>
+      <c r="S4">
+        <v>66.7</v>
+      </c>
+      <c r="T4">
+        <v>18.3</v>
+      </c>
+      <c r="U4">
+        <v>15</v>
+      </c>
+      <c r="V4">
+        <v>11</v>
+      </c>
+      <c r="AB4">
+        <v>3.7</v>
+      </c>
+      <c r="AD4">
+        <v>13.92</v>
       </c>
       <c r="AO4" s="1">
         <v>6.0600000000000005</v>
       </c>
-      <c r="AZ4" t="s">
-        <v>442</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>443</v>
-      </c>
-      <c r="BC4" s="1">
-        <v>1.099</v>
-      </c>
-      <c r="BD4" s="1">
-        <v>2E-3</v>
-      </c>
+      <c r="AR4">
+        <v>0.44</v>
+      </c>
+      <c r="AZ4">
+        <v>101.6</v>
+      </c>
+      <c r="BA4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BC4" s="1"/>
+      <c r="BD4" s="1"/>
     </row>
-    <row r="5" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
       <c r="C5" t="s">
-        <v>163</v>
+        <v>910</v>
       </c>
       <c r="D5" t="s">
-        <v>444</v>
+        <v>907</v>
       </c>
       <c r="E5" t="s">
+        <v>436</v>
+      </c>
+      <c r="I5" t="s">
         <v>438</v>
       </c>
-      <c r="I5" t="s">
-        <v>439</v>
-      </c>
       <c r="J5" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="K5" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="P5">
-        <v>0.90200000000000002</v>
+        <v>1.33</v>
+      </c>
+      <c r="S5">
+        <v>59</v>
+      </c>
+      <c r="T5">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="U5">
+        <v>22.4</v>
+      </c>
+      <c r="V5">
+        <v>26</v>
+      </c>
+      <c r="AB5">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AD5">
+        <v>11.01</v>
       </c>
       <c r="AO5" s="1">
-        <v>6.0600000000000005</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>445</v>
-      </c>
-      <c r="BA5" t="s">
-        <v>446</v>
-      </c>
-      <c r="BC5" s="1">
-        <v>1.0920000000000001</v>
-      </c>
-      <c r="BD5" s="1">
-        <v>2E-3</v>
-      </c>
+        <v>1.58</v>
+      </c>
+      <c r="AR5">
+        <v>0.13</v>
+      </c>
+      <c r="AZ5">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="BA5">
+        <v>2.1</v>
+      </c>
+      <c r="BC5" s="1"/>
+      <c r="BD5" s="1"/>
     </row>
-    <row r="6" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
       <c r="C6" t="s">
-        <v>899</v>
+        <v>910</v>
       </c>
       <c r="D6" t="s">
-        <v>447</v>
+        <v>908</v>
       </c>
       <c r="E6" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="I6" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="J6" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="K6" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="P6">
-        <v>0.90200000000000002</v>
+        <v>1.28</v>
+      </c>
+      <c r="S6">
+        <v>56.4</v>
+      </c>
+      <c r="T6">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="U6">
+        <v>26</v>
+      </c>
+      <c r="V6">
+        <v>35</v>
+      </c>
+      <c r="AB6">
+        <v>4.7</v>
+      </c>
+      <c r="AD6">
+        <v>10.56</v>
       </c>
       <c r="AO6" s="1">
-        <v>6.0600000000000005</v>
-      </c>
-      <c r="AZ6" t="s">
-        <v>448</v>
-      </c>
-      <c r="BA6" t="s">
-        <v>449</v>
-      </c>
-      <c r="BC6" s="1">
-        <v>1.091</v>
-      </c>
-      <c r="BD6" s="1">
-        <v>2E-3</v>
-      </c>
+        <v>1.22</v>
+      </c>
+      <c r="AR6">
+        <v>0.08</v>
+      </c>
+      <c r="AZ6">
+        <v>8.5</v>
+      </c>
+      <c r="BA6">
+        <v>2</v>
+      </c>
+      <c r="BC6" s="1"/>
+      <c r="BD6" s="1"/>
     </row>
-    <row r="7" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" t="s">
-        <v>898</v>
-      </c>
-      <c r="C7" t="s">
-        <v>900</v>
-      </c>
-      <c r="D7" t="s">
-        <v>450</v>
-      </c>
-      <c r="E7" t="s">
-        <v>438</v>
-      </c>
-      <c r="I7" t="s">
-        <v>440</v>
-      </c>
-      <c r="J7" t="s">
-        <v>451</v>
-      </c>
-      <c r="K7" t="s">
-        <v>452</v>
-      </c>
-      <c r="P7">
-        <v>1.2729999999999999</v>
-      </c>
-      <c r="AO7" s="1">
-        <v>1.58</v>
-      </c>
-      <c r="AZ7" t="s">
-        <v>453</v>
-      </c>
-      <c r="BA7" t="s">
-        <v>443</v>
-      </c>
-      <c r="BC7" s="1">
-        <v>1.069</v>
-      </c>
-      <c r="BD7" s="1">
-        <v>2E-3</v>
-      </c>
+    <row r="7" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="AO7" s="1"/>
+      <c r="BC7" s="1"/>
+      <c r="BD7" s="1"/>
     </row>
-    <row r="8" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" t="s">
-        <v>898</v>
-      </c>
-      <c r="C8" t="s">
-        <v>899</v>
-      </c>
-      <c r="D8" t="s">
-        <v>454</v>
-      </c>
-      <c r="E8" t="s">
-        <v>438</v>
-      </c>
-      <c r="I8" t="s">
-        <v>440</v>
-      </c>
-      <c r="J8" t="s">
-        <v>451</v>
-      </c>
-      <c r="K8" t="s">
-        <v>452</v>
-      </c>
-      <c r="P8">
-        <v>1.2729999999999999</v>
-      </c>
-      <c r="AO8" s="1">
-        <v>1.58</v>
-      </c>
-      <c r="AZ8" t="s">
-        <v>455</v>
-      </c>
-      <c r="BA8" t="s">
-        <v>443</v>
-      </c>
-      <c r="BC8" s="1">
-        <v>1.0669999999999999</v>
-      </c>
-      <c r="BD8" s="1">
-        <v>2E-3</v>
-      </c>
+    <row r="8" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="AO8" s="1"/>
+      <c r="BC8" s="1"/>
+      <c r="BD8" s="1"/>
     </row>
-    <row r="9" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" t="s">
-        <v>898</v>
-      </c>
-      <c r="C9" t="s">
-        <v>163</v>
-      </c>
-      <c r="D9" t="s">
-        <v>456</v>
-      </c>
-      <c r="E9" t="s">
-        <v>438</v>
-      </c>
-      <c r="I9" t="s">
-        <v>440</v>
-      </c>
-      <c r="J9" t="s">
-        <v>451</v>
-      </c>
-      <c r="K9" t="s">
-        <v>452</v>
-      </c>
-      <c r="P9">
-        <v>1.2729999999999999</v>
-      </c>
-      <c r="AO9" s="1">
-        <v>1.58</v>
-      </c>
-      <c r="AZ9" t="s">
-        <v>457</v>
-      </c>
-      <c r="BA9" t="s">
-        <v>458</v>
-      </c>
-      <c r="BC9" s="1">
-        <v>1.06</v>
-      </c>
-      <c r="BD9" s="1">
-        <v>2E-3</v>
-      </c>
+    <row r="9" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="AO9" s="1"/>
+      <c r="BC9" s="1"/>
+      <c r="BD9" s="1"/>
     </row>
-    <row r="10" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" t="s">
-        <v>898</v>
-      </c>
-      <c r="C10" t="s">
-        <v>899</v>
-      </c>
-      <c r="D10" t="s">
-        <v>459</v>
-      </c>
-      <c r="E10" t="s">
-        <v>438</v>
-      </c>
-      <c r="I10" t="s">
-        <v>451</v>
-      </c>
-      <c r="J10" t="s">
-        <v>460</v>
-      </c>
-      <c r="K10" t="s">
-        <v>461</v>
-      </c>
-      <c r="P10">
-        <v>1.32</v>
-      </c>
-      <c r="AO10" s="1">
-        <v>1.22</v>
-      </c>
-      <c r="AZ10" t="s">
-        <v>462</v>
-      </c>
-      <c r="BA10" t="s">
-        <v>449</v>
-      </c>
-      <c r="BC10" s="1">
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="BD10" s="1">
-        <v>2E-3</v>
-      </c>
+    <row r="10" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="AO10" s="1"/>
+      <c r="BC10" s="1"/>
+      <c r="BD10" s="1"/>
     </row>
-    <row r="11" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" t="s">
-        <v>898</v>
-      </c>
-      <c r="C11" t="s">
-        <v>163</v>
-      </c>
-      <c r="D11" t="s">
-        <v>463</v>
-      </c>
-      <c r="E11" t="s">
-        <v>438</v>
-      </c>
-      <c r="I11" t="s">
-        <v>451</v>
-      </c>
-      <c r="J11" t="s">
-        <v>460</v>
-      </c>
-      <c r="K11" t="s">
-        <v>461</v>
-      </c>
-      <c r="P11">
-        <v>1.32</v>
-      </c>
-      <c r="AO11" s="1">
-        <v>1.22</v>
-      </c>
-      <c r="AZ11" t="s">
-        <v>464</v>
-      </c>
-      <c r="BA11" t="s">
-        <v>465</v>
-      </c>
-      <c r="BC11" s="1">
-        <v>0.98</v>
-      </c>
-      <c r="BD11" s="1">
-        <v>2E-3</v>
-      </c>
+    <row r="11" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="AO11" s="1"/>
+      <c r="BC11" s="1"/>
+      <c r="BD11" s="1"/>
     </row>
-    <row r="12" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" t="s">
-        <v>898</v>
-      </c>
-      <c r="C12" t="s">
-        <v>900</v>
-      </c>
-      <c r="D12" t="s">
-        <v>466</v>
-      </c>
-      <c r="E12" t="s">
-        <v>438</v>
-      </c>
-      <c r="I12" t="s">
-        <v>451</v>
-      </c>
-      <c r="J12" t="s">
-        <v>460</v>
-      </c>
-      <c r="K12" t="s">
-        <v>461</v>
-      </c>
-      <c r="P12">
-        <v>1.32</v>
-      </c>
-      <c r="AO12" s="1">
-        <v>1.22</v>
-      </c>
-      <c r="AZ12" t="s">
-        <v>467</v>
-      </c>
-      <c r="BA12" t="s">
-        <v>468</v>
-      </c>
-      <c r="BC12" s="1">
-        <v>0.97299999999999998</v>
-      </c>
-      <c r="BD12" s="1">
-        <v>2E-3</v>
-      </c>
+    <row r="12" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="AO12" s="1"/>
+      <c r="BC12" s="1"/>
+      <c r="BD12" s="1"/>
     </row>
   </sheetData>
+  <sortState ref="A4:CT12">
+    <sortCondition ref="C4:C12"/>
+    <sortCondition ref="I4:I12"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <extLst>
@@ -5480,14 +5323,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AB3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5498,82 +5341,82 @@
         <v>72</v>
       </c>
       <c r="D1" t="s">
+        <v>459</v>
+      </c>
+      <c r="E1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F1" t="s">
+        <v>461</v>
+      </c>
+      <c r="G1" t="s">
+        <v>462</v>
+      </c>
+      <c r="H1" t="s">
+        <v>463</v>
+      </c>
+      <c r="I1" t="s">
+        <v>464</v>
+      </c>
+      <c r="J1" t="s">
+        <v>465</v>
+      </c>
+      <c r="K1" t="s">
+        <v>466</v>
+      </c>
+      <c r="L1" t="s">
+        <v>467</v>
+      </c>
+      <c r="M1" t="s">
+        <v>468</v>
+      </c>
+      <c r="N1" t="s">
         <v>469</v>
       </c>
-      <c r="E1" t="s">
+      <c r="O1" t="s">
         <v>470</v>
       </c>
-      <c r="F1" t="s">
+      <c r="P1" t="s">
         <v>471</v>
       </c>
-      <c r="G1" t="s">
+      <c r="Q1" t="s">
         <v>472</v>
       </c>
-      <c r="H1" t="s">
+      <c r="R1" t="s">
         <v>473</v>
       </c>
-      <c r="I1" t="s">
+      <c r="S1" t="s">
         <v>474</v>
       </c>
-      <c r="J1" t="s">
+      <c r="T1" t="s">
         <v>475</v>
       </c>
-      <c r="K1" t="s">
+      <c r="U1" t="s">
         <v>476</v>
       </c>
-      <c r="L1" t="s">
+      <c r="V1" t="s">
         <v>477</v>
       </c>
-      <c r="M1" t="s">
+      <c r="W1" t="s">
         <v>478</v>
       </c>
-      <c r="N1" t="s">
+      <c r="X1" t="s">
         <v>479</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Y1" t="s">
         <v>480</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Z1" t="s">
         <v>481</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="AA1" t="s">
         <v>482</v>
       </c>
-      <c r="R1" t="s">
+      <c r="AB1" t="s">
         <v>483</v>
       </c>
-      <c r="S1" t="s">
-        <v>484</v>
-      </c>
-      <c r="T1" t="s">
-        <v>485</v>
-      </c>
-      <c r="U1" t="s">
-        <v>486</v>
-      </c>
-      <c r="V1" t="s">
-        <v>487</v>
-      </c>
-      <c r="W1" t="s">
-        <v>488</v>
-      </c>
-      <c r="X1" t="s">
-        <v>489</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>490</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>491</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>492</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>493</v>
-      </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -5584,79 +5427,79 @@
         <v>106</v>
       </c>
       <c r="D2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E2" t="s">
         <v>200</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>201</v>
       </c>
-      <c r="F2" t="s">
-        <v>202</v>
-      </c>
       <c r="G2" t="s">
+        <v>484</v>
+      </c>
+      <c r="H2" t="s">
+        <v>485</v>
+      </c>
+      <c r="I2" t="s">
+        <v>486</v>
+      </c>
+      <c r="J2" t="s">
+        <v>487</v>
+      </c>
+      <c r="K2" t="s">
+        <v>488</v>
+      </c>
+      <c r="L2" t="s">
+        <v>489</v>
+      </c>
+      <c r="M2" t="s">
+        <v>490</v>
+      </c>
+      <c r="N2" t="s">
+        <v>213</v>
+      </c>
+      <c r="O2" t="s">
+        <v>214</v>
+      </c>
+      <c r="P2" t="s">
+        <v>491</v>
+      </c>
+      <c r="R2" t="s">
+        <v>492</v>
+      </c>
+      <c r="S2" t="s">
+        <v>493</v>
+      </c>
+      <c r="T2" t="s">
+        <v>220</v>
+      </c>
+      <c r="U2" t="s">
+        <v>221</v>
+      </c>
+      <c r="V2" t="s">
+        <v>222</v>
+      </c>
+      <c r="W2" t="s">
         <v>494</v>
       </c>
-      <c r="H2" t="s">
+      <c r="X2" t="s">
         <v>495</v>
       </c>
-      <c r="I2" t="s">
+      <c r="Y2" t="s">
         <v>496</v>
       </c>
-      <c r="J2" t="s">
+      <c r="Z2" t="s">
         <v>497</v>
       </c>
-      <c r="K2" t="s">
+      <c r="AA2" t="s">
         <v>498</v>
       </c>
-      <c r="L2" t="s">
+      <c r="AB2" t="s">
         <v>499</v>
       </c>
-      <c r="M2" t="s">
-        <v>500</v>
-      </c>
-      <c r="N2" t="s">
-        <v>214</v>
-      </c>
-      <c r="O2" t="s">
-        <v>215</v>
-      </c>
-      <c r="P2" t="s">
-        <v>501</v>
-      </c>
-      <c r="R2" t="s">
-        <v>502</v>
-      </c>
-      <c r="S2" t="s">
-        <v>503</v>
-      </c>
-      <c r="T2" t="s">
-        <v>221</v>
-      </c>
-      <c r="U2" t="s">
-        <v>222</v>
-      </c>
-      <c r="V2" t="s">
-        <v>223</v>
-      </c>
-      <c r="W2" t="s">
-        <v>504</v>
-      </c>
-      <c r="X2" t="s">
-        <v>505</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>506</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>507</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>508</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>509</v>
-      </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -5673,34 +5516,34 @@
         <v>148</v>
       </c>
       <c r="H3" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="L3" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="M3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="N3" t="s">
         <v>145</v>
       </c>
       <c r="R3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="S3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="V3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="W3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="X3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Y3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -5715,16 +5558,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BU3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:BU12"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AI1" sqref="AI1:AK1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:73" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:73" ht="42" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5735,217 +5578,217 @@
         <v>72</v>
       </c>
       <c r="D1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E1" t="s">
+        <v>502</v>
+      </c>
+      <c r="F1" t="s">
+        <v>503</v>
+      </c>
+      <c r="G1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H1" t="s">
+        <v>505</v>
+      </c>
+      <c r="I1" t="s">
+        <v>506</v>
+      </c>
+      <c r="J1" t="s">
+        <v>507</v>
+      </c>
+      <c r="K1" t="s">
+        <v>508</v>
+      </c>
+      <c r="L1" t="s">
+        <v>509</v>
+      </c>
+      <c r="M1" t="s">
+        <v>510</v>
+      </c>
+      <c r="N1" t="s">
+        <v>511</v>
+      </c>
+      <c r="O1" t="s">
         <v>512</v>
       </c>
-      <c r="F1" t="s">
+      <c r="P1" t="s">
         <v>513</v>
       </c>
-      <c r="G1" t="s">
+      <c r="Q1" t="s">
         <v>514</v>
       </c>
-      <c r="H1" t="s">
+      <c r="R1" t="s">
         <v>515</v>
       </c>
-      <c r="I1" t="s">
+      <c r="S1" t="s">
         <v>516</v>
       </c>
-      <c r="J1" t="s">
+      <c r="T1" t="s">
         <v>517</v>
       </c>
-      <c r="K1" t="s">
+      <c r="U1" t="s">
         <v>518</v>
       </c>
-      <c r="L1" t="s">
+      <c r="V1" t="s">
         <v>519</v>
       </c>
-      <c r="M1" t="s">
+      <c r="W1" t="s">
         <v>520</v>
       </c>
-      <c r="N1" t="s">
+      <c r="X1" t="s">
         <v>521</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Y1" t="s">
         <v>522</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Z1" t="s">
         <v>523</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="AA1" t="s">
         <v>524</v>
       </c>
-      <c r="R1" t="s">
+      <c r="AB1" t="s">
         <v>525</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AC1" t="s">
         <v>526</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AD1" t="s">
         <v>527</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AE1" t="s">
         <v>528</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AF1" t="s">
         <v>529</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AG1" t="s">
         <v>530</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AH1" t="s">
         <v>531</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AI1" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>892</v>
+      </c>
+      <c r="AL1" t="s">
         <v>532</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AM1" t="s">
         <v>533</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AN1" t="s">
         <v>534</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AO1" t="s">
         <v>535</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AP1" t="s">
         <v>536</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AQ1" t="s">
         <v>537</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AR1" t="s">
         <v>538</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AS1" t="s">
         <v>539</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AT1" t="s">
         <v>540</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AU1" t="s">
         <v>541</v>
       </c>
-      <c r="AI1" s="2" t="s">
-        <v>903</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>904</v>
-      </c>
-      <c r="AK1" s="4" t="s">
-        <v>905</v>
-      </c>
-      <c r="AL1" t="s">
+      <c r="AV1" t="s">
         <v>542</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AW1" t="s">
         <v>543</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AX1" t="s">
         <v>544</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AY1" t="s">
         <v>545</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AZ1" t="s">
         <v>546</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="BA1" t="s">
         <v>547</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="BB1" t="s">
         <v>548</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="BC1" t="s">
         <v>549</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="BD1" t="s">
         <v>550</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="BE1" t="s">
         <v>551</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="BF1" t="s">
         <v>552</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="BG1" t="s">
         <v>553</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BH1" t="s">
         <v>554</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BI1" t="s">
         <v>555</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BJ1" t="s">
         <v>556</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BK1" t="s">
         <v>557</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BL1" t="s">
         <v>558</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BM1" t="s">
         <v>559</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BN1" t="s">
         <v>560</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BO1" t="s">
         <v>561</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BP1" t="s">
         <v>562</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BQ1" t="s">
         <v>563</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BR1" t="s">
         <v>564</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BS1" t="s">
         <v>565</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BT1" t="s">
         <v>566</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BU1" t="s">
         <v>567</v>
       </c>
-      <c r="BL1" t="s">
-        <v>568</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>569</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>570</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>571</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>572</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>573</v>
-      </c>
-      <c r="BR1" t="s">
-        <v>574</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>575</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>576</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>577</v>
-      </c>
     </row>
-    <row r="2" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -5956,231 +5799,231 @@
         <v>106</v>
       </c>
       <c r="D2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E2" t="s">
+        <v>568</v>
+      </c>
+      <c r="F2" t="s">
+        <v>569</v>
+      </c>
+      <c r="G2" t="s">
+        <v>570</v>
+      </c>
+      <c r="H2" t="s">
+        <v>571</v>
+      </c>
+      <c r="I2" t="s">
+        <v>572</v>
+      </c>
+      <c r="J2" t="s">
+        <v>573</v>
+      </c>
+      <c r="K2" t="s">
+        <v>574</v>
+      </c>
+      <c r="L2" t="s">
+        <v>575</v>
+      </c>
+      <c r="M2" t="s">
+        <v>576</v>
+      </c>
+      <c r="N2" t="s">
+        <v>577</v>
+      </c>
+      <c r="O2" t="s">
         <v>578</v>
       </c>
-      <c r="F2" t="s">
+      <c r="P2" t="s">
         <v>579</v>
       </c>
-      <c r="G2" t="s">
+      <c r="Q2" t="s">
+        <v>199</v>
+      </c>
+      <c r="R2" t="s">
+        <v>200</v>
+      </c>
+      <c r="S2" t="s">
+        <v>201</v>
+      </c>
+      <c r="U2" t="s">
         <v>580</v>
       </c>
-      <c r="H2" t="s">
+      <c r="V2" t="s">
         <v>581</v>
       </c>
-      <c r="I2" t="s">
+      <c r="W2" t="s">
         <v>582</v>
       </c>
-      <c r="J2" t="s">
+      <c r="X2" t="s">
         <v>583</v>
       </c>
-      <c r="K2" t="s">
+      <c r="Y2" t="s">
         <v>584</v>
       </c>
-      <c r="L2" t="s">
+      <c r="Z2" t="s">
         <v>585</v>
       </c>
-      <c r="M2" t="s">
+      <c r="AA2" t="s">
         <v>586</v>
       </c>
-      <c r="N2" t="s">
+      <c r="AB2" t="s">
         <v>587</v>
       </c>
-      <c r="O2" t="s">
+      <c r="AC2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AF2" t="s">
         <v>588</v>
       </c>
-      <c r="P2" t="s">
+      <c r="AG2" t="s">
         <v>589</v>
       </c>
-      <c r="Q2" t="s">
-        <v>200</v>
-      </c>
-      <c r="R2" t="s">
-        <v>201</v>
-      </c>
-      <c r="S2" t="s">
-        <v>202</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="AH2" t="s">
         <v>590</v>
       </c>
-      <c r="V2" t="s">
+      <c r="AI2" t="s">
         <v>591</v>
       </c>
-      <c r="W2" t="s">
+      <c r="AJ2" t="s">
         <v>592</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AK2" t="s">
         <v>593</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AL2" t="s">
+        <v>384</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>385</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>386</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>390</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>391</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>392</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>393</v>
+      </c>
+      <c r="AS2" t="s">
         <v>594</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AT2" t="s">
+        <v>395</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>396</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>397</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>398</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>399</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>400</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>401</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>402</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>403</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>404</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>405</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>406</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>407</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>409</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>410</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>411</v>
+      </c>
+      <c r="BJ2" t="s">
         <v>595</v>
       </c>
-      <c r="AA2" t="s">
-        <v>596</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>597</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>221</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>222</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>223</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>598</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>599</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>600</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>601</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>602</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>603</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>385</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>386</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>387</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>391</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>392</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>393</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>394</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>604</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>396</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>397</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>398</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>399</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>400</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>401</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>402</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>403</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>404</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>405</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>406</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>407</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>408</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>410</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>411</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>412</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>605</v>
-      </c>
       <c r="BK2" t="s">
+        <v>413</v>
+      </c>
+      <c r="BL2" t="s">
         <v>414</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BM2" t="s">
         <v>415</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BN2" t="s">
         <v>416</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BO2" t="s">
         <v>417</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BP2" t="s">
         <v>418</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BQ2" t="s">
         <v>419</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="BR2" t="s">
         <v>420</v>
       </c>
-      <c r="BR2" t="s">
+      <c r="BS2" t="s">
         <v>421</v>
       </c>
-      <c r="BS2" t="s">
+      <c r="BT2" t="s">
         <v>422</v>
       </c>
-      <c r="BT2" t="s">
-        <v>423</v>
-      </c>
       <c r="BU2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
-    <row r="3" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="G3" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="H3" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="I3" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="M3" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="N3" t="s">
         <v>139</v>
@@ -6213,122 +6056,518 @@
         <v>145</v>
       </c>
       <c r="AA3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AB3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AE3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AF3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AG3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AH3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AL3" t="s">
+        <v>432</v>
+      </c>
+      <c r="AM3" t="s">
         <v>433</v>
       </c>
-      <c r="AM3" t="s">
-        <v>434</v>
-      </c>
       <c r="AN3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AO3" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="AP3" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="AQ3" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="AR3" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="AT3" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="AU3" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="AV3" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="AW3" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="AY3" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="AZ3" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="BA3" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="BB3" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="BD3" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="BE3" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="BF3" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="BG3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="BH3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="BI3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="BJ3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="BK3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="BL3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="BM3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="BN3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="BO3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="BP3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="BQ3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="BR3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="BS3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="BT3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="BU3" t="s">
-        <v>436</v>
-      </c>
+        <v>435</v>
+      </c>
+    </row>
+    <row r="4" spans="1:73" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>888</v>
+      </c>
+      <c r="C4" t="s">
+        <v>910</v>
+      </c>
+      <c r="D4" t="s">
+        <v>906</v>
+      </c>
+      <c r="E4" t="s">
+        <v>912</v>
+      </c>
+      <c r="F4" t="s">
+        <v>911</v>
+      </c>
+      <c r="H4" t="s">
+        <v>840</v>
+      </c>
+      <c r="I4" t="s">
+        <v>853</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>868</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>442</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>443</v>
+      </c>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AO4" s="1"/>
+    </row>
+    <row r="5" spans="1:73" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>888</v>
+      </c>
+      <c r="C5" t="s">
+        <v>910</v>
+      </c>
+      <c r="D5" t="s">
+        <v>907</v>
+      </c>
+      <c r="E5" t="s">
+        <v>912</v>
+      </c>
+      <c r="F5" t="s">
+        <v>911</v>
+      </c>
+      <c r="H5" t="s">
+        <v>840</v>
+      </c>
+      <c r="I5" t="s">
+        <v>853</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>868</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>450</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>451</v>
+      </c>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AO5" s="1"/>
+    </row>
+    <row r="6" spans="1:73" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>888</v>
+      </c>
+      <c r="C6" t="s">
+        <v>910</v>
+      </c>
+      <c r="D6" t="s">
+        <v>908</v>
+      </c>
+      <c r="E6" t="s">
+        <v>912</v>
+      </c>
+      <c r="F6" t="s">
+        <v>911</v>
+      </c>
+      <c r="H6" t="s">
+        <v>840</v>
+      </c>
+      <c r="I6" t="s">
+        <v>853</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
+        <v>868</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>455</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>456</v>
+      </c>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1"/>
+      <c r="AO6" s="1"/>
+    </row>
+    <row r="7" spans="1:73" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>888</v>
+      </c>
+      <c r="C7" t="s">
+        <v>910</v>
+      </c>
+      <c r="D7" t="s">
+        <v>906</v>
+      </c>
+      <c r="E7" t="s">
+        <v>913</v>
+      </c>
+      <c r="F7" t="s">
+        <v>911</v>
+      </c>
+      <c r="H7" t="s">
+        <v>840</v>
+      </c>
+      <c r="I7" t="s">
+        <v>853</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>868</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>444</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>445</v>
+      </c>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1"/>
+      <c r="AO7" s="1"/>
+    </row>
+    <row r="8" spans="1:73" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>888</v>
+      </c>
+      <c r="C8" t="s">
+        <v>910</v>
+      </c>
+      <c r="D8" t="s">
+        <v>907</v>
+      </c>
+      <c r="E8" t="s">
+        <v>913</v>
+      </c>
+      <c r="F8" t="s">
+        <v>911</v>
+      </c>
+      <c r="H8" t="s">
+        <v>840</v>
+      </c>
+      <c r="I8" t="s">
+        <v>853</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8" t="s">
+        <v>868</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>449</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>441</v>
+      </c>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="1"/>
+      <c r="AO8" s="1"/>
+    </row>
+    <row r="9" spans="1:73" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>888</v>
+      </c>
+      <c r="C9" t="s">
+        <v>910</v>
+      </c>
+      <c r="D9" t="s">
+        <v>908</v>
+      </c>
+      <c r="E9" t="s">
+        <v>913</v>
+      </c>
+      <c r="F9" t="s">
+        <v>911</v>
+      </c>
+      <c r="H9" t="s">
+        <v>840</v>
+      </c>
+      <c r="I9" t="s">
+        <v>853</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
+        <v>868</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>454</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>445</v>
+      </c>
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="1"/>
+      <c r="AO9" s="1"/>
+    </row>
+    <row r="10" spans="1:73" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s">
+        <v>888</v>
+      </c>
+      <c r="C10" t="s">
+        <v>910</v>
+      </c>
+      <c r="D10" t="s">
+        <v>906</v>
+      </c>
+      <c r="E10" t="s">
+        <v>914</v>
+      </c>
+      <c r="F10" t="s">
+        <v>911</v>
+      </c>
+      <c r="H10" t="s">
+        <v>840</v>
+      </c>
+      <c r="I10" t="s">
+        <v>853</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10" t="s">
+        <v>868</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>440</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>441</v>
+      </c>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="1"/>
+      <c r="AO10" s="1"/>
+    </row>
+    <row r="11" spans="1:73" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>888</v>
+      </c>
+      <c r="C11" t="s">
+        <v>910</v>
+      </c>
+      <c r="D11" t="s">
+        <v>907</v>
+      </c>
+      <c r="E11" t="s">
+        <v>914</v>
+      </c>
+      <c r="F11" t="s">
+        <v>911</v>
+      </c>
+      <c r="H11" t="s">
+        <v>840</v>
+      </c>
+      <c r="I11" t="s">
+        <v>853</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11" t="s">
+        <v>868</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>448</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>441</v>
+      </c>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1"/>
+      <c r="AO11" s="1"/>
+    </row>
+    <row r="12" spans="1:73" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>888</v>
+      </c>
+      <c r="C12" t="s">
+        <v>910</v>
+      </c>
+      <c r="D12" t="s">
+        <v>908</v>
+      </c>
+      <c r="E12" t="s">
+        <v>914</v>
+      </c>
+      <c r="F12" t="s">
+        <v>911</v>
+      </c>
+      <c r="H12" t="s">
+        <v>840</v>
+      </c>
+      <c r="I12" t="s">
+        <v>853</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12" t="s">
+        <v>868</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>457</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>458</v>
+      </c>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="1"/>
+      <c r="AO12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6342,14 +6581,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AD3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6360,88 +6599,88 @@
         <v>72</v>
       </c>
       <c r="D1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E1" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="F1" t="s">
+        <v>602</v>
+      </c>
+      <c r="G1" t="s">
+        <v>603</v>
+      </c>
+      <c r="H1" t="s">
+        <v>604</v>
+      </c>
+      <c r="I1" t="s">
+        <v>605</v>
+      </c>
+      <c r="J1" t="s">
+        <v>606</v>
+      </c>
+      <c r="K1" t="s">
+        <v>607</v>
+      </c>
+      <c r="L1" t="s">
+        <v>608</v>
+      </c>
+      <c r="M1" t="s">
+        <v>609</v>
+      </c>
+      <c r="N1" t="s">
+        <v>610</v>
+      </c>
+      <c r="O1" t="s">
+        <v>611</v>
+      </c>
+      <c r="P1" t="s">
         <v>612</v>
       </c>
-      <c r="G1" t="s">
+      <c r="Q1" t="s">
         <v>613</v>
       </c>
-      <c r="H1" t="s">
+      <c r="R1" t="s">
         <v>614</v>
       </c>
-      <c r="I1" t="s">
+      <c r="S1" t="s">
         <v>615</v>
       </c>
-      <c r="J1" t="s">
+      <c r="T1" t="s">
         <v>616</v>
       </c>
-      <c r="K1" t="s">
+      <c r="U1" t="s">
         <v>617</v>
       </c>
-      <c r="L1" t="s">
+      <c r="V1" t="s">
         <v>618</v>
       </c>
-      <c r="M1" t="s">
+      <c r="W1" t="s">
         <v>619</v>
       </c>
-      <c r="N1" t="s">
+      <c r="X1" t="s">
         <v>620</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Y1" t="s">
         <v>621</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Z1" t="s">
         <v>622</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="AA1" t="s">
         <v>623</v>
       </c>
-      <c r="R1" t="s">
+      <c r="AB1" t="s">
         <v>624</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AC1" t="s">
         <v>625</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AD1" t="s">
         <v>626</v>
       </c>
-      <c r="U1" t="s">
-        <v>627</v>
-      </c>
-      <c r="V1" t="s">
-        <v>628</v>
-      </c>
-      <c r="W1" t="s">
-        <v>629</v>
-      </c>
-      <c r="X1" t="s">
-        <v>630</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>631</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>632</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>633</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>634</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>635</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>636</v>
-      </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -6449,82 +6688,82 @@
         <v>59</v>
       </c>
       <c r="C2" t="s">
+        <v>627</v>
+      </c>
+      <c r="D2" t="s">
+        <v>628</v>
+      </c>
+      <c r="E2" t="s">
+        <v>629</v>
+      </c>
+      <c r="F2" t="s">
+        <v>630</v>
+      </c>
+      <c r="G2" t="s">
+        <v>342</v>
+      </c>
+      <c r="H2" t="s">
+        <v>199</v>
+      </c>
+      <c r="I2" t="s">
+        <v>200</v>
+      </c>
+      <c r="J2" t="s">
+        <v>201</v>
+      </c>
+      <c r="K2" t="s">
+        <v>631</v>
+      </c>
+      <c r="N2" t="s">
+        <v>632</v>
+      </c>
+      <c r="O2" t="s">
+        <v>633</v>
+      </c>
+      <c r="P2" t="s">
+        <v>634</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>635</v>
+      </c>
+      <c r="R2" t="s">
+        <v>636</v>
+      </c>
+      <c r="T2" t="s">
         <v>637</v>
       </c>
-      <c r="D2" t="s">
+      <c r="U2" t="s">
         <v>638</v>
       </c>
-      <c r="E2" t="s">
+      <c r="V2" t="s">
+        <v>220</v>
+      </c>
+      <c r="W2" t="s">
+        <v>221</v>
+      </c>
+      <c r="X2" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y2" t="s">
         <v>639</v>
       </c>
-      <c r="F2" t="s">
+      <c r="Z2" t="s">
         <v>640</v>
       </c>
-      <c r="G2" t="s">
-        <v>343</v>
-      </c>
-      <c r="H2" t="s">
-        <v>200</v>
-      </c>
-      <c r="I2" t="s">
-        <v>201</v>
-      </c>
-      <c r="J2" t="s">
-        <v>202</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="AA2" t="s">
         <v>641</v>
       </c>
-      <c r="N2" t="s">
+      <c r="AB2" t="s">
         <v>642</v>
       </c>
-      <c r="O2" t="s">
+      <c r="AC2" t="s">
         <v>643</v>
       </c>
-      <c r="P2" t="s">
+      <c r="AD2" t="s">
         <v>644</v>
       </c>
-      <c r="Q2" t="s">
-        <v>645</v>
-      </c>
-      <c r="R2" t="s">
-        <v>646</v>
-      </c>
-      <c r="T2" t="s">
-        <v>647</v>
-      </c>
-      <c r="U2" t="s">
-        <v>648</v>
-      </c>
-      <c r="V2" t="s">
-        <v>221</v>
-      </c>
-      <c r="W2" t="s">
-        <v>222</v>
-      </c>
-      <c r="X2" t="s">
-        <v>223</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>649</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>650</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>651</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>652</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>653</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>654</v>
-      </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -6538,37 +6777,37 @@
         <v>37</v>
       </c>
       <c r="K3" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="L3" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="M3" t="s">
         <v>141</v>
       </c>
       <c r="P3" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="Q3" t="s">
         <v>145</v>
       </c>
       <c r="T3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="U3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="X3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Y3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Z3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AA3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -6583,148 +6822,148 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AR21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>647</v>
+      </c>
+      <c r="B1" t="s">
+        <v>648</v>
+      </c>
+      <c r="C1" t="s">
+        <v>649</v>
+      </c>
+      <c r="D1" t="s">
+        <v>650</v>
+      </c>
+      <c r="E1" t="s">
+        <v>651</v>
+      </c>
+      <c r="F1" t="s">
+        <v>652</v>
+      </c>
+      <c r="G1" t="s">
+        <v>653</v>
+      </c>
+      <c r="H1" t="s">
+        <v>654</v>
+      </c>
+      <c r="I1" t="s">
+        <v>655</v>
+      </c>
+      <c r="J1" t="s">
+        <v>656</v>
+      </c>
+      <c r="K1" t="s">
         <v>657</v>
       </c>
-      <c r="B1" t="s">
+      <c r="L1" t="s">
         <v>658</v>
       </c>
-      <c r="C1" t="s">
+      <c r="M1" t="s">
         <v>659</v>
       </c>
-      <c r="D1" t="s">
+      <c r="N1" t="s">
         <v>660</v>
       </c>
-      <c r="E1" t="s">
+      <c r="O1" t="s">
         <v>661</v>
       </c>
-      <c r="F1" t="s">
+      <c r="P1" t="s">
         <v>662</v>
       </c>
-      <c r="G1" t="s">
+      <c r="Q1" t="s">
         <v>663</v>
       </c>
-      <c r="H1" t="s">
+      <c r="R1" t="s">
         <v>664</v>
       </c>
-      <c r="I1" t="s">
+      <c r="S1" t="s">
         <v>665</v>
       </c>
-      <c r="J1" t="s">
+      <c r="T1" t="s">
         <v>666</v>
       </c>
-      <c r="K1" t="s">
+      <c r="U1" t="s">
         <v>667</v>
       </c>
-      <c r="L1" t="s">
+      <c r="V1" t="s">
         <v>668</v>
       </c>
-      <c r="M1" t="s">
+      <c r="W1" t="s">
         <v>669</v>
       </c>
-      <c r="N1" t="s">
+      <c r="X1" t="s">
         <v>670</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Y1" t="s">
         <v>671</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Z1" t="s">
         <v>672</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="AA1" t="s">
         <v>673</v>
       </c>
-      <c r="R1" t="s">
+      <c r="AB1" t="s">
         <v>674</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AC1" t="s">
         <v>675</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AD1" t="s">
         <v>676</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AE1" t="s">
         <v>677</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AF1" t="s">
         <v>678</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AG1" t="s">
         <v>679</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AH1" t="s">
         <v>680</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AI1" t="s">
         <v>681</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AJ1" t="s">
         <v>682</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AK1" t="s">
         <v>683</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AL1" t="s">
         <v>684</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AM1" t="s">
         <v>685</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AN1" t="s">
         <v>686</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AO1" t="s">
         <v>687</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AP1" t="s">
         <v>688</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AQ1" t="s">
         <v>689</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AR1" t="s">
         <v>690</v>
       </c>
-      <c r="AI1" t="s">
-        <v>691</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>692</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>693</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>694</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>695</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>696</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>697</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>698</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>699</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>700</v>
-      </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -6759,828 +6998,828 @@
         <v>76</v>
       </c>
       <c r="L2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M2" t="s">
+        <v>170</v>
+      </c>
+      <c r="N2" t="s">
         <v>171</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>172</v>
       </c>
-      <c r="O2" t="s">
-        <v>173</v>
-      </c>
       <c r="P2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Q2" t="s">
+        <v>176</v>
+      </c>
+      <c r="R2" t="s">
         <v>177</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>178</v>
       </c>
-      <c r="S2" t="s">
-        <v>179</v>
-      </c>
       <c r="T2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="U2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="V2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="W2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="X2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Y2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Z2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AA2" t="s">
+        <v>691</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>463</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>464</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>465</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>466</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>472</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>602</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>692</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>608</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>610</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>612</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>615</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>505</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>509</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>504</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>506</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>511</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>693</v>
+      </c>
+      <c r="H3" t="s">
+        <v>694</v>
+      </c>
+      <c r="I3" t="s">
+        <v>695</v>
+      </c>
+      <c r="U3" t="s">
+        <v>694</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>571</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>696</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>698</v>
+      </c>
+      <c r="B4" t="s">
+        <v>699</v>
+      </c>
+      <c r="C4" t="s">
+        <v>700</v>
+      </c>
+      <c r="D4" t="s">
         <v>701</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>473</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>474</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>475</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>476</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>482</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>612</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>702</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>618</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>620</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>622</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>625</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>515</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>519</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>514</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>516</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>521</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="G3" t="s">
-        <v>703</v>
-      </c>
-      <c r="H3" t="s">
-        <v>704</v>
-      </c>
-      <c r="I3" t="s">
-        <v>705</v>
-      </c>
-      <c r="U3" t="s">
-        <v>704</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>581</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>706</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>708</v>
-      </c>
-      <c r="B4" t="s">
-        <v>709</v>
-      </c>
-      <c r="C4" t="s">
-        <v>710</v>
-      </c>
-      <c r="D4" t="s">
-        <v>711</v>
       </c>
       <c r="E4" t="s">
         <v>160</v>
       </c>
       <c r="F4" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="G4" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="H4" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="I4" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="J4" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="K4" t="s">
         <v>158</v>
       </c>
       <c r="L4" t="s">
+        <v>707</v>
+      </c>
+      <c r="M4" t="s">
+        <v>708</v>
+      </c>
+      <c r="N4" t="s">
+        <v>709</v>
+      </c>
+      <c r="O4" t="s">
+        <v>710</v>
+      </c>
+      <c r="P4" t="s">
+        <v>711</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>712</v>
+      </c>
+      <c r="R4" t="s">
+        <v>700</v>
+      </c>
+      <c r="S4" t="s">
+        <v>700</v>
+      </c>
+      <c r="T4" t="s">
+        <v>713</v>
+      </c>
+      <c r="U4" t="s">
+        <v>714</v>
+      </c>
+      <c r="V4" t="s">
+        <v>715</v>
+      </c>
+      <c r="W4" t="s">
+        <v>716</v>
+      </c>
+      <c r="X4" t="s">
+        <v>700</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>700</v>
+      </c>
+      <c r="Z4" t="s">
         <v>717</v>
       </c>
-      <c r="M4" t="s">
+      <c r="AA4" t="s">
         <v>718</v>
       </c>
-      <c r="N4" t="s">
+      <c r="AB4" t="s">
         <v>719</v>
       </c>
-      <c r="O4" t="s">
+      <c r="AC4" t="s">
+        <v>708</v>
+      </c>
+      <c r="AD4" t="s">
         <v>720</v>
       </c>
-      <c r="P4" t="s">
+      <c r="AE4" t="s">
+        <v>711</v>
+      </c>
+      <c r="AF4" t="s">
         <v>721</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="AG4" t="s">
         <v>722</v>
       </c>
-      <c r="R4" t="s">
-        <v>710</v>
-      </c>
-      <c r="S4" t="s">
-        <v>710</v>
-      </c>
-      <c r="T4" t="s">
+      <c r="AH4" t="s">
+        <v>709</v>
+      </c>
+      <c r="AI4" t="s">
         <v>723</v>
       </c>
-      <c r="U4" t="s">
+      <c r="AJ4" t="s">
         <v>724</v>
       </c>
-      <c r="V4" t="s">
+      <c r="AK4" t="s">
         <v>725</v>
       </c>
-      <c r="W4" t="s">
+      <c r="AL4" t="s">
         <v>726</v>
       </c>
-      <c r="X4" t="s">
-        <v>710</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>710</v>
-      </c>
-      <c r="Z4" t="s">
+      <c r="AM4" t="s">
         <v>727</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AN4" t="s">
         <v>728</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AO4" t="s">
         <v>729</v>
       </c>
-      <c r="AC4" t="s">
-        <v>718</v>
-      </c>
-      <c r="AD4" t="s">
+      <c r="AP4" t="s">
         <v>730</v>
       </c>
-      <c r="AE4" t="s">
-        <v>721</v>
-      </c>
-      <c r="AF4" t="s">
+      <c r="AQ4" t="s">
+        <v>700</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>731</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="B5" t="s">
         <v>732</v>
       </c>
-      <c r="AH4" t="s">
-        <v>719</v>
-      </c>
-      <c r="AI4" t="s">
+      <c r="D5" t="s">
         <v>733</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="E5" t="s">
         <v>734</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="F5" t="s">
         <v>735</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="G5" t="s">
         <v>736</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="H5" t="s">
         <v>737</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="I5" t="s">
         <v>738</v>
       </c>
-      <c r="AO4" t="s">
+      <c r="J5" t="s">
         <v>739</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="K5" t="s">
         <v>740</v>
       </c>
-      <c r="AQ4" t="s">
-        <v>710</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>726</v>
+      <c r="L5" t="s">
+        <v>741</v>
+      </c>
+      <c r="M5" t="s">
+        <v>742</v>
+      </c>
+      <c r="N5" t="s">
+        <v>743</v>
+      </c>
+      <c r="O5" t="s">
+        <v>744</v>
+      </c>
+      <c r="P5" t="s">
+        <v>745</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>746</v>
+      </c>
+      <c r="T5" t="s">
+        <v>747</v>
+      </c>
+      <c r="U5" t="s">
+        <v>748</v>
+      </c>
+      <c r="V5" t="s">
+        <v>749</v>
+      </c>
+      <c r="W5" t="s">
+        <v>750</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>751</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>752</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>742</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>753</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>745</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>754</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>755</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>743</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>756</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>757</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>758</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>759</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>760</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>761</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>762</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>763</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>750</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>741</v>
-      </c>
-      <c r="B5" t="s">
-        <v>742</v>
-      </c>
-      <c r="D5" t="s">
-        <v>743</v>
-      </c>
-      <c r="E5" t="s">
-        <v>744</v>
-      </c>
-      <c r="F5" t="s">
-        <v>745</v>
-      </c>
-      <c r="G5" t="s">
-        <v>746</v>
-      </c>
-      <c r="H5" t="s">
-        <v>747</v>
-      </c>
-      <c r="I5" t="s">
-        <v>748</v>
-      </c>
-      <c r="J5" t="s">
-        <v>749</v>
-      </c>
-      <c r="K5" t="s">
-        <v>750</v>
-      </c>
-      <c r="L5" t="s">
-        <v>751</v>
-      </c>
-      <c r="M5" t="s">
-        <v>752</v>
-      </c>
-      <c r="N5" t="s">
-        <v>753</v>
-      </c>
-      <c r="O5" t="s">
-        <v>754</v>
-      </c>
-      <c r="P5" t="s">
-        <v>755</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>756</v>
-      </c>
-      <c r="T5" t="s">
-        <v>757</v>
-      </c>
-      <c r="U5" t="s">
-        <v>758</v>
-      </c>
-      <c r="V5" t="s">
-        <v>759</v>
-      </c>
-      <c r="W5" t="s">
-        <v>760</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>761</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>762</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>752</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>763</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>755</v>
-      </c>
-      <c r="AF5" t="s">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>764</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="B6" t="s">
         <v>765</v>
       </c>
-      <c r="AH5" t="s">
-        <v>753</v>
-      </c>
-      <c r="AI5" t="s">
+      <c r="D6" t="s">
         <v>766</v>
       </c>
-      <c r="AJ5" t="s">
+      <c r="E6" t="s">
         <v>767</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>768</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>769</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>770</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>771</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>772</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>773</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>774</v>
-      </c>
-      <c r="B6" t="s">
-        <v>775</v>
-      </c>
-      <c r="D6" t="s">
-        <v>776</v>
-      </c>
-      <c r="E6" t="s">
-        <v>777</v>
       </c>
       <c r="F6" t="s">
         <v>161</v>
       </c>
       <c r="G6" t="s">
+        <v>768</v>
+      </c>
+      <c r="H6" t="s">
+        <v>769</v>
+      </c>
+      <c r="I6" t="s">
+        <v>770</v>
+      </c>
+      <c r="J6" t="s">
+        <v>771</v>
+      </c>
+      <c r="L6" t="s">
+        <v>772</v>
+      </c>
+      <c r="M6" t="s">
+        <v>773</v>
+      </c>
+      <c r="N6" t="s">
+        <v>774</v>
+      </c>
+      <c r="O6" t="s">
+        <v>775</v>
+      </c>
+      <c r="P6" t="s">
+        <v>776</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>501</v>
+      </c>
+      <c r="T6" t="s">
+        <v>777</v>
+      </c>
+      <c r="U6" t="s">
         <v>778</v>
       </c>
-      <c r="H6" t="s">
+      <c r="V6" t="s">
         <v>779</v>
       </c>
-      <c r="I6" t="s">
+      <c r="W6" t="s">
         <v>780</v>
       </c>
-      <c r="J6" t="s">
+      <c r="AA6" t="s">
         <v>781</v>
       </c>
-      <c r="L6" t="s">
+      <c r="AB6" t="s">
         <v>782</v>
       </c>
-      <c r="M6" t="s">
+      <c r="AC6" t="s">
+        <v>773</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>776</v>
+      </c>
+      <c r="AF6" t="s">
         <v>783</v>
       </c>
-      <c r="N6" t="s">
+      <c r="AG6" t="s">
         <v>784</v>
       </c>
-      <c r="O6" t="s">
+      <c r="AH6" t="s">
         <v>785</v>
       </c>
-      <c r="P6" t="s">
+      <c r="AI6" t="s">
         <v>786</v>
       </c>
-      <c r="Q6" t="s">
-        <v>511</v>
-      </c>
-      <c r="T6" t="s">
+      <c r="AJ6" t="s">
+        <v>767</v>
+      </c>
+      <c r="AM6" t="s">
         <v>787</v>
       </c>
-      <c r="U6" t="s">
+      <c r="AN6" t="s">
         <v>788</v>
       </c>
-      <c r="V6" t="s">
+      <c r="AO6" t="s">
         <v>789</v>
-      </c>
-      <c r="W6" t="s">
-        <v>790</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>791</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>792</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>783</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>786</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>793</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>794</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>795</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>796</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>777</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>797</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>798</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>799</v>
       </c>
       <c r="AP6" t="s">
         <v>36</v>
       </c>
       <c r="AR6" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>790</v>
       </c>
+      <c r="B7" t="s">
+        <v>791</v>
+      </c>
+      <c r="F7" t="s">
+        <v>792</v>
+      </c>
+      <c r="G7" t="s">
+        <v>793</v>
+      </c>
+      <c r="H7" t="s">
+        <v>794</v>
+      </c>
+      <c r="J7" t="s">
+        <v>795</v>
+      </c>
+      <c r="L7" t="s">
+        <v>796</v>
+      </c>
+      <c r="M7" t="s">
+        <v>797</v>
+      </c>
+      <c r="N7" t="s">
+        <v>798</v>
+      </c>
+      <c r="P7" t="s">
+        <v>799</v>
+      </c>
+      <c r="T7" t="s">
+        <v>800</v>
+      </c>
+      <c r="U7" t="s">
+        <v>801</v>
+      </c>
+      <c r="V7" t="s">
+        <v>802</v>
+      </c>
+      <c r="W7" t="s">
+        <v>803</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>797</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>799</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>804</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>805</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>806</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>807</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>808</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>809</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>810</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>803</v>
+      </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>800</v>
-      </c>
-      <c r="B7" t="s">
-        <v>801</v>
-      </c>
-      <c r="F7" t="s">
-        <v>802</v>
-      </c>
-      <c r="G7" t="s">
-        <v>803</v>
-      </c>
-      <c r="H7" t="s">
-        <v>804</v>
-      </c>
-      <c r="J7" t="s">
-        <v>805</v>
-      </c>
-      <c r="L7" t="s">
-        <v>806</v>
-      </c>
-      <c r="M7" t="s">
-        <v>807</v>
-      </c>
-      <c r="N7" t="s">
-        <v>808</v>
-      </c>
-      <c r="P7" t="s">
-        <v>809</v>
-      </c>
-      <c r="T7" t="s">
-        <v>810</v>
-      </c>
-      <c r="U7" t="s">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>811</v>
       </c>
-      <c r="V7" t="s">
+      <c r="B8" t="s">
         <v>812</v>
       </c>
-      <c r="W7" t="s">
+      <c r="F8" t="s">
         <v>813</v>
       </c>
-      <c r="AC7" t="s">
-        <v>807</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>809</v>
-      </c>
-      <c r="AF7" t="s">
+      <c r="G8" t="s">
         <v>814</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="H8" t="s">
         <v>815</v>
       </c>
-      <c r="AI7" t="s">
+      <c r="J8" t="s">
         <v>816</v>
       </c>
-      <c r="AM7" t="s">
+      <c r="L8" t="s">
         <v>817</v>
       </c>
-      <c r="AN7" t="s">
+      <c r="M8" t="s">
         <v>818</v>
       </c>
-      <c r="AO7" t="s">
+      <c r="N8" t="s">
         <v>819</v>
       </c>
-      <c r="AP7" t="s">
+      <c r="P8" t="s">
         <v>820</v>
       </c>
-      <c r="AR7" t="s">
-        <v>813</v>
+      <c r="T8" t="s">
+        <v>821</v>
+      </c>
+      <c r="U8" t="s">
+        <v>822</v>
+      </c>
+      <c r="V8" t="s">
+        <v>823</v>
+      </c>
+      <c r="W8" t="s">
+        <v>767</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>818</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>820</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>824</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>825</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>826</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>827</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>501</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>767</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>821</v>
-      </c>
-      <c r="B8" t="s">
-        <v>822</v>
-      </c>
-      <c r="F8" t="s">
-        <v>823</v>
-      </c>
-      <c r="G8" t="s">
-        <v>824</v>
-      </c>
-      <c r="H8" t="s">
-        <v>825</v>
-      </c>
-      <c r="J8" t="s">
-        <v>826</v>
-      </c>
-      <c r="L8" t="s">
-        <v>827</v>
-      </c>
-      <c r="M8" t="s">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>828</v>
       </c>
-      <c r="N8" t="s">
+      <c r="B9" t="s">
         <v>829</v>
       </c>
-      <c r="P8" t="s">
+      <c r="F9" t="s">
         <v>830</v>
       </c>
-      <c r="T8" t="s">
+      <c r="G9" t="s">
         <v>831</v>
       </c>
-      <c r="U8" t="s">
+      <c r="H9" t="s">
         <v>832</v>
       </c>
-      <c r="V8" t="s">
+      <c r="J9" t="s">
         <v>833</v>
       </c>
-      <c r="W8" t="s">
-        <v>777</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>828</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>830</v>
-      </c>
-      <c r="AG8" t="s">
+      <c r="L9" t="s">
         <v>834</v>
       </c>
-      <c r="AM8" t="s">
+      <c r="M9" t="s">
         <v>835</v>
       </c>
-      <c r="AN8" t="s">
+      <c r="P9" t="s">
         <v>836</v>
       </c>
-      <c r="AO8" t="s">
+      <c r="T9" t="s">
         <v>837</v>
       </c>
-      <c r="AP8" t="s">
-        <v>511</v>
-      </c>
-      <c r="AR8" t="s">
-        <v>777</v>
+      <c r="U9" t="s">
+        <v>838</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>839</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>835</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>840</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>841</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>842</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>843</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>838</v>
-      </c>
-      <c r="B9" t="s">
-        <v>839</v>
-      </c>
-      <c r="F9" t="s">
-        <v>840</v>
-      </c>
-      <c r="G9" t="s">
-        <v>841</v>
-      </c>
-      <c r="H9" t="s">
-        <v>842</v>
-      </c>
-      <c r="J9" t="s">
-        <v>843</v>
-      </c>
-      <c r="L9" t="s">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>844</v>
       </c>
-      <c r="M9" t="s">
+      <c r="B10" t="s">
         <v>845</v>
       </c>
-      <c r="P9" t="s">
+      <c r="F10" t="s">
         <v>846</v>
       </c>
-      <c r="T9" t="s">
+      <c r="G10" t="s">
         <v>847</v>
       </c>
-      <c r="U9" t="s">
+      <c r="H10" t="s">
         <v>848</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="U10" t="s">
         <v>849</v>
       </c>
-      <c r="AG9" t="s">
-        <v>845</v>
-      </c>
-      <c r="AM9" t="s">
+      <c r="AM10" t="s">
         <v>850</v>
       </c>
-      <c r="AN9" t="s">
+      <c r="AN10" t="s">
         <v>851</v>
       </c>
-      <c r="AO9" t="s">
+      <c r="AO10" t="s">
         <v>852</v>
       </c>
-      <c r="AP9" t="s">
+      <c r="AP10" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
         <v>854</v>
       </c>
-      <c r="B10" t="s">
+      <c r="F11" t="s">
         <v>855</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H11" t="s">
         <v>856</v>
       </c>
-      <c r="G10" t="s">
+      <c r="U11" t="s">
         <v>857</v>
       </c>
-      <c r="H10" t="s">
+      <c r="AM11" t="s">
         <v>858</v>
       </c>
-      <c r="U10" t="s">
+      <c r="AN11" t="s">
         <v>859</v>
       </c>
-      <c r="AM10" t="s">
+      <c r="AO11" t="s">
+        <v>859</v>
+      </c>
+      <c r="AP11" t="s">
         <v>860</v>
       </c>
-      <c r="AN10" t="s">
+    </row>
+    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="H12" t="s">
         <v>861</v>
       </c>
-      <c r="AO10" t="s">
+      <c r="U12" t="s">
         <v>862</v>
       </c>
-      <c r="AP10" t="s">
+      <c r="AM12" t="s">
         <v>863</v>
       </c>
+      <c r="AN12" t="s">
+        <v>864</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>865</v>
+      </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>864</v>
-      </c>
-      <c r="F11" t="s">
-        <v>865</v>
-      </c>
-      <c r="H11" t="s">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="U13" t="s">
         <v>866</v>
       </c>
-      <c r="U11" t="s">
+      <c r="AM13" t="s">
         <v>867</v>
       </c>
-      <c r="AM11" t="s">
+      <c r="AN13" t="s">
         <v>868</v>
       </c>
-      <c r="AN11" t="s">
+      <c r="AO13" t="s">
         <v>869</v>
       </c>
-      <c r="AO11" t="s">
-        <v>869</v>
-      </c>
-      <c r="AP11" t="s">
+    </row>
+    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="U14" t="s">
         <v>870</v>
       </c>
+      <c r="AN14" t="s">
+        <v>871</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>872</v>
+      </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="H12" t="s">
-        <v>871</v>
-      </c>
-      <c r="U12" t="s">
-        <v>872</v>
-      </c>
-      <c r="AM12" t="s">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="U15" t="s">
         <v>873</v>
       </c>
-      <c r="AN12" t="s">
+      <c r="AN15" t="s">
         <v>874</v>
       </c>
-      <c r="AO12" t="s">
+      <c r="AO15" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="U13" t="s">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="U16" t="s">
         <v>876</v>
       </c>
-      <c r="AM13" t="s">
+      <c r="AN16" t="s">
         <v>877</v>
       </c>
-      <c r="AN13" t="s">
+      <c r="AO16" t="s">
         <v>878</v>
       </c>
-      <c r="AO13" t="s">
+    </row>
+    <row r="17" spans="40:41" x14ac:dyDescent="0.2">
+      <c r="AN17" t="s">
         <v>879</v>
       </c>
+      <c r="AO17" t="s">
+        <v>880</v>
+      </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="U14" t="s">
-        <v>880</v>
-      </c>
-      <c r="AN14" t="s">
+    <row r="18" spans="40:41" x14ac:dyDescent="0.2">
+      <c r="AN18" t="s">
         <v>881</v>
       </c>
-      <c r="AO14" t="s">
+      <c r="AO18" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="U15" t="s">
+    <row r="19" spans="40:41" x14ac:dyDescent="0.2">
+      <c r="AN19" t="s">
         <v>883</v>
       </c>
-      <c r="AN15" t="s">
+      <c r="AO19" t="s">
         <v>884</v>
       </c>
-      <c r="AO15" t="s">
+    </row>
+    <row r="20" spans="40:41" x14ac:dyDescent="0.2">
+      <c r="AN20" t="s">
         <v>885</v>
       </c>
+      <c r="AO20" t="s">
+        <v>886</v>
+      </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="U16" t="s">
-        <v>886</v>
-      </c>
-      <c r="AN16" t="s">
+    <row r="21" spans="40:41" x14ac:dyDescent="0.2">
+      <c r="AN21" t="s">
         <v>887</v>
-      </c>
-      <c r="AO16" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="17" spans="40:41" x14ac:dyDescent="0.3">
-      <c r="AN17" t="s">
-        <v>889</v>
-      </c>
-      <c r="AO17" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="18" spans="40:41" x14ac:dyDescent="0.3">
-      <c r="AN18" t="s">
-        <v>891</v>
-      </c>
-      <c r="AO18" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="19" spans="40:41" x14ac:dyDescent="0.3">
-      <c r="AN19" t="s">
-        <v>893</v>
-      </c>
-      <c r="AO19" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="20" spans="40:41" x14ac:dyDescent="0.3">
-      <c r="AN20" t="s">
-        <v>895</v>
-      </c>
-      <c r="AO20" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="21" spans="40:41" x14ac:dyDescent="0.3">
-      <c r="AN21" t="s">
-        <v>897</v>
       </c>
     </row>
   </sheetData>
